--- a/lab1/search2.xlsx
+++ b/lab1/search2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volod\CLionProjects\mipt_lpr_cpplessons_term2\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1748DC12-F83F-4568-A771-BD6F6AA432ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5BDD6-63C3-433C-88DD-D73744D8DE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{73779941-B7BB-4C11-9C0C-E10562803055}"/>
   </bookViews>
@@ -79,6 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -122,10 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,13 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D03BBE-077A-4007-AD81-7EC50C144A2D}">
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -495,41 +504,41 @@
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>400</v>
-      </c>
-      <c r="C2">
-        <v>400</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
+      <c r="B2" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>40.1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>71.600000000000009</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="F2">
-        <v>400</v>
+        <v>606</v>
       </c>
       <c r="G2">
-        <v>300</v>
-      </c>
-      <c r="H2">
-        <v>700</v>
+        <v>485</v>
+      </c>
+      <c r="H2" s="3">
+        <v>257</v>
       </c>
       <c r="I2">
-        <v>1200</v>
+        <v>206</v>
       </c>
       <c r="J2">
-        <v>600</v>
-      </c>
-      <c r="K2">
-        <v>800</v>
+        <v>263</v>
+      </c>
+      <c r="K2" s="4">
+        <v>280</v>
       </c>
       <c r="L2">
-        <v>600</v>
+        <v>257</v>
       </c>
       <c r="M2">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
@@ -537,41 +546,41 @@
       <c r="A3">
         <v>2099</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
+      <c r="B3" s="4">
+        <v>1559.44</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3498.6400000000003</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6029.7000000000007</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>5105</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>6337</v>
       </c>
       <c r="G3">
-        <v>200</v>
-      </c>
-      <c r="H3">
-        <v>400</v>
+        <v>5314</v>
+      </c>
+      <c r="H3" s="3">
+        <v>640</v>
       </c>
       <c r="I3">
-        <v>1200</v>
+        <v>605</v>
       </c>
       <c r="J3">
-        <v>300</v>
-      </c>
-      <c r="K3">
-        <v>500</v>
+        <v>576</v>
+      </c>
+      <c r="K3" s="4">
+        <v>460</v>
       </c>
       <c r="L3">
-        <v>700</v>
+        <v>473</v>
       </c>
       <c r="M3">
-        <v>200</v>
+        <v>371</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -579,41 +588,41 @@
       <c r="A4">
         <v>4098</v>
       </c>
-      <c r="B4">
-        <v>11300</v>
-      </c>
-      <c r="C4">
-        <v>11400</v>
-      </c>
-      <c r="D4">
-        <v>11500</v>
+      <c r="B4" s="4">
+        <v>3662.31</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6741.7099999999991</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12566.800000000001</v>
       </c>
       <c r="E4">
-        <v>15000</v>
+        <v>9714</v>
       </c>
       <c r="F4">
-        <v>12100</v>
+        <v>12372</v>
       </c>
       <c r="G4">
-        <v>11500</v>
-      </c>
-      <c r="H4">
-        <v>600</v>
+        <v>11326</v>
+      </c>
+      <c r="H4" s="3">
+        <v>683.00000000000011</v>
       </c>
       <c r="I4">
-        <v>900</v>
+        <v>723</v>
       </c>
       <c r="J4">
-        <v>200</v>
-      </c>
-      <c r="K4">
-        <v>1400</v>
+        <v>730</v>
+      </c>
+      <c r="K4" s="4">
+        <v>530</v>
       </c>
       <c r="L4">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="M4">
-        <v>200</v>
+        <v>498</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -621,41 +630,41 @@
       <c r="A5">
         <v>6097</v>
       </c>
-      <c r="B5">
-        <v>11400</v>
-      </c>
-      <c r="C5">
-        <v>11400</v>
-      </c>
-      <c r="D5">
-        <v>11500</v>
+      <c r="B5" s="4">
+        <v>4581.5800000000008</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8777.840000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>21276.300000000003</v>
       </c>
       <c r="E5">
-        <v>14700</v>
+        <v>14569</v>
       </c>
       <c r="F5">
-        <v>11300</v>
+        <v>18385</v>
       </c>
       <c r="G5">
-        <v>11400</v>
-      </c>
-      <c r="H5">
-        <v>700</v>
+        <v>16774</v>
+      </c>
+      <c r="H5" s="3">
+        <v>710</v>
       </c>
       <c r="I5">
-        <v>900</v>
+        <v>630</v>
       </c>
       <c r="J5">
-        <v>300</v>
-      </c>
-      <c r="K5">
-        <v>1500</v>
+        <v>741</v>
+      </c>
+      <c r="K5" s="4">
+        <v>500</v>
       </c>
       <c r="L5">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="M5">
-        <v>700</v>
+        <v>498</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -663,41 +672,41 @@
       <c r="A6">
         <v>8096</v>
       </c>
-      <c r="B6">
-        <v>1900</v>
-      </c>
-      <c r="C6">
-        <v>1900</v>
-      </c>
-      <c r="D6">
-        <v>1900</v>
+      <c r="B6" s="4">
+        <v>8027.27</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12502</v>
+      </c>
+      <c r="D6" s="4">
+        <v>24579</v>
       </c>
       <c r="E6">
-        <v>2300</v>
+        <v>19333</v>
       </c>
       <c r="F6">
-        <v>1900</v>
+        <v>24172</v>
       </c>
       <c r="G6">
-        <v>1900</v>
-      </c>
-      <c r="H6">
-        <v>400</v>
+        <v>22321</v>
+      </c>
+      <c r="H6" s="3">
+        <v>745</v>
       </c>
       <c r="I6">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="J6">
-        <v>300</v>
-      </c>
-      <c r="K6">
-        <v>800</v>
+        <v>712</v>
+      </c>
+      <c r="K6" s="4">
+        <v>550</v>
       </c>
       <c r="L6">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="M6">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
@@ -705,41 +714,41 @@
       <c r="A7">
         <v>10095</v>
       </c>
-      <c r="B7">
-        <v>4200</v>
-      </c>
-      <c r="C7">
-        <v>4100</v>
-      </c>
-      <c r="D7">
-        <v>4100</v>
+      <c r="B7" s="4">
+        <v>7164.3300000000008</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13687.400000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>33537.1</v>
       </c>
       <c r="E7">
-        <v>5400</v>
+        <v>24030</v>
       </c>
       <c r="F7">
-        <v>5400</v>
+        <v>30269</v>
       </c>
       <c r="G7">
-        <v>4400</v>
-      </c>
-      <c r="H7">
-        <v>500</v>
+        <v>23976</v>
+      </c>
+      <c r="H7" s="3">
+        <v>784</v>
       </c>
       <c r="I7">
-        <v>700</v>
+        <v>815</v>
       </c>
       <c r="J7">
-        <v>200</v>
-      </c>
-      <c r="K7">
-        <v>1800</v>
+        <v>743</v>
+      </c>
+      <c r="K7" s="4">
+        <v>550</v>
       </c>
       <c r="L7">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="M7">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
@@ -747,41 +756,41 @@
       <c r="A8">
         <v>12094</v>
       </c>
-      <c r="B8">
-        <v>4500</v>
-      </c>
-      <c r="C8">
-        <v>4500</v>
-      </c>
-      <c r="D8">
-        <v>4600</v>
+      <c r="B8" s="4">
+        <v>9975.9600000000009</v>
+      </c>
+      <c r="C8" s="4">
+        <v>21634.600000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43870.200000000004</v>
       </c>
       <c r="E8">
-        <v>6000</v>
+        <v>28854</v>
       </c>
       <c r="F8">
-        <v>5400</v>
+        <v>48093</v>
       </c>
       <c r="G8">
-        <v>5100</v>
-      </c>
-      <c r="H8">
-        <v>600</v>
+        <v>28821</v>
+      </c>
+      <c r="H8" s="3">
+        <v>774</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="J8">
-        <v>600</v>
-      </c>
-      <c r="K8">
-        <v>3200</v>
+        <v>799</v>
+      </c>
+      <c r="K8" s="4">
+        <v>550</v>
       </c>
       <c r="L8">
-        <v>700</v>
+        <v>642</v>
       </c>
       <c r="M8">
-        <v>500</v>
+        <v>613</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
@@ -789,41 +798,41 @@
       <c r="A9">
         <v>14093</v>
       </c>
-      <c r="B9">
-        <v>6600</v>
-      </c>
-      <c r="C9">
-        <v>6800</v>
-      </c>
-      <c r="D9">
-        <v>6600</v>
+      <c r="B9" s="4">
+        <v>11108</v>
+      </c>
+      <c r="C9" s="4">
+        <v>21192.1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45680.200000000004</v>
       </c>
       <c r="E9">
-        <v>8800</v>
+        <v>33461</v>
       </c>
       <c r="F9">
-        <v>7600</v>
+        <v>42472</v>
       </c>
       <c r="G9">
-        <v>7300</v>
-      </c>
-      <c r="H9">
-        <v>700</v>
+        <v>33526</v>
+      </c>
+      <c r="H9" s="3">
+        <v>782</v>
       </c>
       <c r="I9">
-        <v>1500</v>
+        <v>670</v>
       </c>
       <c r="J9">
-        <v>400</v>
-      </c>
-      <c r="K9">
-        <v>600</v>
+        <v>887</v>
+      </c>
+      <c r="K9" s="4">
+        <v>550</v>
       </c>
       <c r="L9">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="M9">
-        <v>400</v>
+        <v>498</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
@@ -831,41 +840,41 @@
       <c r="A10">
         <v>16092</v>
       </c>
-      <c r="B10">
-        <v>14000</v>
-      </c>
-      <c r="C10">
-        <v>15800</v>
-      </c>
-      <c r="D10">
-        <v>16000</v>
+      <c r="B10" s="4">
+        <v>17243.600000000002</v>
+      </c>
+      <c r="C10" s="4">
+        <v>29455.100000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>53701.9</v>
       </c>
       <c r="E10">
-        <v>18800</v>
+        <v>38264</v>
       </c>
       <c r="F10">
-        <v>16400</v>
+        <v>48320</v>
       </c>
       <c r="G10">
-        <v>14800</v>
-      </c>
-      <c r="H10">
-        <v>500</v>
+        <v>38255</v>
+      </c>
+      <c r="H10" s="3">
+        <v>804</v>
       </c>
       <c r="I10">
-        <v>900</v>
+        <v>797</v>
       </c>
       <c r="J10">
-        <v>600</v>
-      </c>
-      <c r="K10">
-        <v>1000</v>
+        <v>708</v>
+      </c>
+      <c r="K10" s="4">
+        <v>560</v>
       </c>
       <c r="L10">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="M10">
-        <v>700</v>
+        <v>495</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
@@ -873,41 +882,41 @@
       <c r="A11">
         <v>18091</v>
       </c>
-      <c r="B11">
-        <v>34500</v>
-      </c>
-      <c r="C11">
-        <v>38100</v>
-      </c>
-      <c r="D11">
-        <v>36600</v>
+      <c r="B11" s="4">
+        <v>10477.900000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>27574.400000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>62182.200000000004</v>
       </c>
       <c r="E11">
-        <v>43100</v>
+        <v>42873</v>
       </c>
       <c r="F11">
-        <v>39800</v>
+        <v>54580</v>
       </c>
       <c r="G11">
-        <v>37900</v>
-      </c>
-      <c r="H11">
-        <v>500</v>
+        <v>52362</v>
+      </c>
+      <c r="H11" s="3">
+        <v>826</v>
       </c>
       <c r="I11">
-        <v>1500</v>
+        <v>893</v>
       </c>
       <c r="J11">
-        <v>400</v>
-      </c>
-      <c r="K11">
-        <v>1900</v>
+        <v>655</v>
+      </c>
+      <c r="K11" s="4">
+        <v>610</v>
       </c>
       <c r="L11">
-        <v>700</v>
+        <v>655</v>
       </c>
       <c r="M11">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -915,41 +924,41 @@
       <c r="A12">
         <v>20090</v>
       </c>
-      <c r="B12">
-        <v>19600</v>
-      </c>
-      <c r="C12">
-        <v>18300</v>
-      </c>
-      <c r="D12">
-        <v>19600</v>
+      <c r="B12" s="4">
+        <v>18398.400000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>31551.600000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>66226.2</v>
       </c>
       <c r="E12">
-        <v>21900</v>
+        <v>48139</v>
       </c>
       <c r="F12">
-        <v>20800</v>
+        <v>60169</v>
       </c>
       <c r="G12">
-        <v>23700</v>
-      </c>
-      <c r="H12">
-        <v>1500</v>
+        <v>47801</v>
+      </c>
+      <c r="H12" s="3">
+        <v>804</v>
       </c>
       <c r="I12">
-        <v>1200</v>
+        <v>748</v>
       </c>
       <c r="J12">
-        <v>300</v>
-      </c>
-      <c r="K12">
-        <v>1600</v>
+        <v>766</v>
+      </c>
+      <c r="K12" s="4">
+        <v>600</v>
       </c>
       <c r="L12">
-        <v>1900</v>
+        <v>542</v>
       </c>
       <c r="M12">
-        <v>400</v>
+        <v>741</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
@@ -957,41 +966,41 @@
       <c r="A13">
         <v>22089</v>
       </c>
-      <c r="B13">
-        <v>7300</v>
-      </c>
-      <c r="C13">
-        <v>9200</v>
-      </c>
-      <c r="D13">
-        <v>8400</v>
+      <c r="B13" s="4">
+        <v>15220.300000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>31696</v>
+      </c>
+      <c r="D13" s="4">
+        <v>80550.700000000012</v>
       </c>
       <c r="E13">
-        <v>9300</v>
+        <v>52515</v>
       </c>
       <c r="F13">
-        <v>9100</v>
+        <v>66554</v>
       </c>
       <c r="G13">
-        <v>7500</v>
-      </c>
-      <c r="H13">
-        <v>800</v>
+        <v>52637</v>
+      </c>
+      <c r="H13" s="3">
+        <v>827.99999999999989</v>
       </c>
       <c r="I13">
-        <v>2100</v>
+        <v>684</v>
       </c>
       <c r="J13">
+        <v>912</v>
+      </c>
+      <c r="K13" s="4">
         <v>600</v>
       </c>
-      <c r="K13">
-        <v>1000</v>
-      </c>
       <c r="L13">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="M13">
-        <v>800</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
@@ -999,41 +1008,41 @@
       <c r="A14">
         <v>24088</v>
       </c>
-      <c r="B14">
-        <v>46100</v>
-      </c>
-      <c r="C14">
-        <v>41100</v>
-      </c>
-      <c r="D14">
-        <v>52100</v>
+      <c r="B14" s="4">
+        <v>16706.7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>31898.999999999996</v>
+      </c>
+      <c r="D14" s="4">
+        <v>85793.3</v>
       </c>
       <c r="E14">
-        <v>51100</v>
+        <v>60599</v>
       </c>
       <c r="F14">
-        <v>44600</v>
+        <v>73810</v>
       </c>
       <c r="G14">
-        <v>51100</v>
-      </c>
-      <c r="H14">
-        <v>900</v>
+        <v>57216</v>
+      </c>
+      <c r="H14" s="3">
+        <v>823</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>721</v>
       </c>
       <c r="J14">
-        <v>600</v>
-      </c>
-      <c r="K14">
-        <v>2200</v>
+        <v>998</v>
+      </c>
+      <c r="K14" s="4">
+        <v>620</v>
       </c>
       <c r="L14">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="M14">
-        <v>300</v>
+        <v>664</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
@@ -1041,41 +1050,41 @@
       <c r="A15">
         <v>26087</v>
       </c>
-      <c r="B15">
-        <v>30400</v>
-      </c>
-      <c r="C15">
-        <v>30400</v>
-      </c>
-      <c r="D15">
-        <v>31400</v>
+      <c r="B15" s="4">
+        <v>15572.900000000001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>40859.4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>95338.500000000015</v>
       </c>
       <c r="E15">
-        <v>35400</v>
+        <v>62296</v>
       </c>
       <c r="F15">
-        <v>34500</v>
+        <v>78181</v>
       </c>
       <c r="G15">
-        <v>35300</v>
-      </c>
-      <c r="H15">
-        <v>1100</v>
+        <v>62132</v>
+      </c>
+      <c r="H15" s="3">
+        <v>852</v>
       </c>
       <c r="I15">
-        <v>1500</v>
+        <v>1028</v>
       </c>
       <c r="J15">
-        <v>700</v>
-      </c>
-      <c r="K15">
-        <v>1400</v>
+        <v>691</v>
+      </c>
+      <c r="K15" s="4">
+        <v>600</v>
       </c>
       <c r="L15">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="M15">
-        <v>800</v>
+        <v>463</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
@@ -1083,41 +1092,41 @@
       <c r="A16">
         <v>28086</v>
       </c>
-      <c r="B16">
-        <v>37800</v>
-      </c>
-      <c r="C16">
-        <v>43400</v>
-      </c>
-      <c r="D16">
-        <v>42100</v>
+      <c r="B16" s="4">
+        <v>26227.200000000001</v>
+      </c>
+      <c r="C16" s="4">
+        <v>38485.300000000003</v>
+      </c>
+      <c r="D16" s="4">
+        <v>72903.199999999997</v>
       </c>
       <c r="E16">
-        <v>58900</v>
+        <v>71577</v>
       </c>
       <c r="F16">
-        <v>46600</v>
+        <v>84165</v>
       </c>
       <c r="G16">
-        <v>45300</v>
-      </c>
-      <c r="H16">
-        <v>1000</v>
+        <v>66653</v>
+      </c>
+      <c r="H16" s="3">
+        <v>835</v>
       </c>
       <c r="I16">
-        <v>3100</v>
+        <v>779</v>
       </c>
       <c r="J16">
-        <v>700</v>
-      </c>
-      <c r="K16">
-        <v>1700</v>
+        <v>1037</v>
+      </c>
+      <c r="K16" s="4">
+        <v>610</v>
       </c>
       <c r="L16">
-        <v>1000</v>
+        <v>734</v>
       </c>
       <c r="M16">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
@@ -1125,41 +1134,41 @@
       <c r="A17">
         <v>30085</v>
       </c>
-      <c r="B17">
-        <v>47700</v>
-      </c>
-      <c r="C17">
-        <v>66700</v>
-      </c>
-      <c r="D17">
-        <v>46200</v>
+      <c r="B17" s="4">
+        <v>27357.4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>36756.800000000003</v>
+      </c>
+      <c r="D17" s="4">
+        <v>110841</v>
       </c>
       <c r="E17">
-        <v>59800</v>
+        <v>74749</v>
       </c>
       <c r="F17">
-        <v>47000</v>
+        <v>96436</v>
       </c>
       <c r="G17">
-        <v>49700</v>
-      </c>
-      <c r="H17">
-        <v>900</v>
+        <v>71786</v>
+      </c>
+      <c r="H17" s="3">
+        <v>844</v>
       </c>
       <c r="I17">
-        <v>1000</v>
+        <v>936</v>
       </c>
       <c r="J17">
+        <v>851</v>
+      </c>
+      <c r="K17" s="4">
         <v>600</v>
       </c>
-      <c r="K17">
-        <v>2000</v>
-      </c>
       <c r="L17">
-        <v>1700</v>
+        <v>602</v>
       </c>
       <c r="M17">
-        <v>1400</v>
+        <v>737</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
@@ -1167,41 +1176,41 @@
       <c r="A18">
         <v>32084</v>
       </c>
-      <c r="B18">
-        <v>114700</v>
-      </c>
-      <c r="C18">
-        <v>134600</v>
-      </c>
-      <c r="D18">
-        <v>121000</v>
+      <c r="B18" s="4">
+        <v>27403.800000000003</v>
+      </c>
+      <c r="C18" s="4">
+        <v>57403.8</v>
+      </c>
+      <c r="D18" s="4">
+        <v>102821</v>
       </c>
       <c r="E18">
-        <v>139900</v>
+        <v>76470</v>
       </c>
       <c r="F18">
-        <v>113300</v>
+        <v>99905</v>
       </c>
       <c r="G18">
-        <v>116100</v>
-      </c>
-      <c r="H18">
-        <v>1500</v>
+        <v>76173</v>
+      </c>
+      <c r="H18" s="3">
+        <v>872.99999999999989</v>
       </c>
       <c r="I18">
-        <v>1900</v>
+        <v>681</v>
       </c>
       <c r="J18">
-        <v>700</v>
-      </c>
-      <c r="K18">
-        <v>1000</v>
+        <v>732</v>
+      </c>
+      <c r="K18" s="4">
+        <v>600</v>
       </c>
       <c r="L18">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="M18">
-        <v>700</v>
+        <v>623</v>
       </c>
       <c r="Q18" s="1"/>
     </row>
@@ -1209,41 +1218,41 @@
       <c r="A19">
         <v>34083</v>
       </c>
-      <c r="B19">
-        <v>38800</v>
-      </c>
-      <c r="C19">
-        <v>62500</v>
-      </c>
-      <c r="D19">
-        <v>40100</v>
+      <c r="B19" s="4">
+        <v>28824.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>55638.8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>119387</v>
       </c>
       <c r="E19">
-        <v>46100</v>
+        <v>81224</v>
       </c>
       <c r="F19">
-        <v>39300</v>
+        <v>109240</v>
       </c>
       <c r="G19">
-        <v>40400</v>
-      </c>
-      <c r="H19">
-        <v>2300</v>
+        <v>81063</v>
+      </c>
+      <c r="H19" s="3">
+        <v>865</v>
       </c>
       <c r="I19">
-        <v>1700</v>
+        <v>963</v>
       </c>
       <c r="J19">
-        <v>1300</v>
-      </c>
-      <c r="K19">
-        <v>2400</v>
+        <v>1015</v>
+      </c>
+      <c r="K19" s="4">
+        <v>660</v>
       </c>
       <c r="L19">
-        <v>1100</v>
+        <v>512</v>
       </c>
       <c r="M19">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
@@ -1251,41 +1260,41 @@
       <c r="A20">
         <v>36082</v>
       </c>
-      <c r="B20">
-        <v>42100</v>
-      </c>
-      <c r="C20">
-        <v>45100</v>
-      </c>
-      <c r="D20">
-        <v>42200</v>
+      <c r="B20" s="4">
+        <v>24973</v>
+      </c>
+      <c r="C20" s="4">
+        <v>49657.700000000004</v>
+      </c>
+      <c r="D20" s="4">
+        <v>129117</v>
       </c>
       <c r="E20">
-        <v>46700</v>
+        <v>90068</v>
       </c>
       <c r="F20">
-        <v>41600</v>
+        <v>120517</v>
       </c>
       <c r="G20">
-        <v>42700</v>
-      </c>
-      <c r="H20">
-        <v>800</v>
+        <v>88267</v>
+      </c>
+      <c r="H20" s="3">
+        <v>882</v>
       </c>
       <c r="I20">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="J20">
-        <v>700</v>
-      </c>
-      <c r="K20">
-        <v>1100</v>
+        <v>935</v>
+      </c>
+      <c r="K20" s="4">
+        <v>649.99999999999989</v>
       </c>
       <c r="L20">
-        <v>900</v>
+        <v>603</v>
       </c>
       <c r="M20">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
@@ -1293,41 +1302,41 @@
       <c r="A21">
         <v>38081</v>
       </c>
-      <c r="B21">
-        <v>127600</v>
-      </c>
-      <c r="C21">
-        <v>135600</v>
-      </c>
-      <c r="D21">
-        <v>111500</v>
+      <c r="B21" s="4">
+        <v>36844.1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>62281.4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>124335</v>
       </c>
       <c r="E21">
-        <v>129500</v>
+        <v>97190</v>
       </c>
       <c r="F21">
-        <v>125500</v>
+        <v>114699</v>
       </c>
       <c r="G21">
-        <v>113300</v>
-      </c>
-      <c r="H21">
-        <v>2000</v>
+        <v>90534</v>
+      </c>
+      <c r="H21" s="3">
+        <v>883</v>
       </c>
       <c r="I21">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="J21">
-        <v>1700</v>
-      </c>
-      <c r="K21">
-        <v>2700</v>
+        <v>706</v>
+      </c>
+      <c r="K21" s="4">
+        <v>660</v>
       </c>
       <c r="L21">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="M21">
-        <v>700</v>
+        <v>641</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
@@ -1335,41 +1344,41 @@
       <c r="A22">
         <v>40080</v>
       </c>
-      <c r="B22">
-        <v>69500</v>
-      </c>
-      <c r="C22">
-        <v>74500</v>
-      </c>
-      <c r="D22">
-        <v>70700</v>
+      <c r="B22" s="4">
+        <v>33066.1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>71342.7</v>
+      </c>
+      <c r="D22" s="4">
+        <v>133667</v>
       </c>
       <c r="E22">
-        <v>85100</v>
+        <v>99248</v>
       </c>
       <c r="F22">
-        <v>71200</v>
+        <v>124082</v>
       </c>
       <c r="G22">
-        <v>69800</v>
-      </c>
-      <c r="H22">
-        <v>1000</v>
+        <v>95124</v>
+      </c>
+      <c r="H22" s="3">
+        <v>875</v>
       </c>
       <c r="I22">
-        <v>1100</v>
+        <v>1019</v>
       </c>
       <c r="J22">
-        <v>500</v>
-      </c>
-      <c r="K22">
-        <v>900</v>
+        <v>783</v>
+      </c>
+      <c r="K22" s="4">
+        <v>649.99999999999989</v>
       </c>
       <c r="L22">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="M22">
-        <v>500</v>
+        <v>713</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
@@ -1377,41 +1386,41 @@
       <c r="A23">
         <v>42079</v>
       </c>
-      <c r="B23">
-        <v>77900</v>
-      </c>
-      <c r="C23">
-        <v>78500</v>
-      </c>
-      <c r="D23">
-        <v>77100</v>
+      <c r="B23" s="4">
+        <v>29369.7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>59117.700000000004</v>
+      </c>
+      <c r="D23" s="4">
+        <v>134160</v>
       </c>
       <c r="E23">
-        <v>96400</v>
+        <v>106920</v>
       </c>
       <c r="F23">
-        <v>75800</v>
+        <v>126402</v>
       </c>
       <c r="G23">
-        <v>87400</v>
-      </c>
-      <c r="H23">
-        <v>2600</v>
+        <v>102631</v>
+      </c>
+      <c r="H23" s="3">
+        <v>883.99999999999989</v>
       </c>
       <c r="I23">
-        <v>2100</v>
+        <v>984</v>
       </c>
       <c r="J23">
-        <v>800</v>
-      </c>
-      <c r="K23">
-        <v>2200</v>
+        <v>732</v>
+      </c>
+      <c r="K23" s="4">
+        <v>660</v>
       </c>
       <c r="L23">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="M23">
-        <v>1600</v>
+        <v>781</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
@@ -1419,41 +1428,41 @@
       <c r="A24">
         <v>44078</v>
       </c>
-      <c r="B24">
-        <v>13000</v>
-      </c>
-      <c r="C24">
-        <v>12200</v>
-      </c>
-      <c r="D24">
-        <v>13600</v>
+      <c r="B24" s="4">
+        <v>39735.700000000004</v>
+      </c>
+      <c r="C24" s="4">
+        <v>55947.100000000006</v>
+      </c>
+      <c r="D24" s="4">
+        <v>151057</v>
       </c>
       <c r="E24">
-        <v>15800</v>
+        <v>113702</v>
       </c>
       <c r="F24">
-        <v>12300</v>
+        <v>132409</v>
       </c>
       <c r="G24">
-        <v>95100</v>
-      </c>
-      <c r="H24">
-        <v>1300</v>
+        <v>104988</v>
+      </c>
+      <c r="H24" s="3">
+        <v>871</v>
       </c>
       <c r="I24">
-        <v>1100</v>
+        <v>1077</v>
       </c>
       <c r="J24">
-        <v>600</v>
-      </c>
-      <c r="K24">
-        <v>900</v>
+        <v>836</v>
+      </c>
+      <c r="K24" s="4">
+        <v>649.99999999999989</v>
       </c>
       <c r="L24">
-        <v>800</v>
+        <v>674</v>
       </c>
       <c r="M24">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
@@ -1461,41 +1470,41 @@
       <c r="A25">
         <v>46077</v>
       </c>
-      <c r="B25">
-        <v>34100</v>
-      </c>
-      <c r="C25">
-        <v>34900</v>
-      </c>
-      <c r="D25">
-        <v>34300</v>
+      <c r="B25" s="4">
+        <v>44884.800000000003</v>
+      </c>
+      <c r="C25" s="4">
+        <v>54930.9</v>
+      </c>
+      <c r="D25" s="4">
+        <v>155714</v>
       </c>
       <c r="E25">
-        <v>42900</v>
+        <v>113618</v>
       </c>
       <c r="F25">
-        <v>62100</v>
+        <v>137770</v>
       </c>
       <c r="G25">
-        <v>34000</v>
-      </c>
-      <c r="H25">
-        <v>2500</v>
+        <v>112417</v>
+      </c>
+      <c r="H25" s="3">
+        <v>880</v>
       </c>
       <c r="I25">
-        <v>800</v>
+        <v>1053</v>
       </c>
       <c r="J25">
-        <v>2200</v>
-      </c>
-      <c r="K25">
-        <v>2500</v>
+        <v>775</v>
+      </c>
+      <c r="K25" s="4">
+        <v>660</v>
       </c>
       <c r="L25">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="M25">
-        <v>600</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
@@ -1503,41 +1512,41 @@
       <c r="A26">
         <v>48076</v>
       </c>
-      <c r="B26">
-        <v>119500</v>
-      </c>
-      <c r="C26">
-        <v>122300</v>
-      </c>
-      <c r="D26">
-        <v>160500</v>
+      <c r="B26" s="4">
+        <v>37884.6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>72548.100000000006</v>
+      </c>
+      <c r="D26" s="4">
+        <v>138317</v>
       </c>
       <c r="E26">
-        <v>139800</v>
+        <v>129273</v>
       </c>
       <c r="F26">
-        <v>121400</v>
+        <v>143812</v>
       </c>
       <c r="G26">
-        <v>181400</v>
-      </c>
-      <c r="H26">
-        <v>2900</v>
+        <v>122004</v>
+      </c>
+      <c r="H26" s="3">
+        <v>894</v>
       </c>
       <c r="I26">
-        <v>600</v>
+        <v>1101</v>
       </c>
       <c r="J26">
-        <v>1300</v>
-      </c>
-      <c r="K26">
-        <v>2300</v>
+        <v>680</v>
+      </c>
+      <c r="K26" s="4">
+        <v>670</v>
       </c>
       <c r="L26">
-        <v>1900</v>
+        <v>528</v>
       </c>
       <c r="M26">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
@@ -1545,41 +1554,41 @@
       <c r="A27">
         <v>50075</v>
       </c>
-      <c r="B27">
-        <v>62100</v>
-      </c>
-      <c r="C27">
-        <v>64400</v>
-      </c>
-      <c r="D27">
-        <v>76900</v>
+      <c r="B27" s="4">
+        <v>47218.000000000007</v>
+      </c>
+      <c r="C27" s="4">
+        <v>94035.1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>166817</v>
       </c>
       <c r="E27">
-        <v>79300</v>
+        <v>125006</v>
       </c>
       <c r="F27">
-        <v>63200</v>
+        <v>170409</v>
       </c>
       <c r="G27">
-        <v>68200</v>
-      </c>
-      <c r="H27">
-        <v>2300</v>
+        <v>119215</v>
+      </c>
+      <c r="H27" s="3">
+        <v>900</v>
       </c>
       <c r="I27">
-        <v>500</v>
+        <v>1114</v>
       </c>
       <c r="J27">
-        <v>1100</v>
-      </c>
-      <c r="K27">
-        <v>2300</v>
+        <v>1050</v>
+      </c>
+      <c r="K27" s="4">
+        <v>660</v>
       </c>
       <c r="L27">
-        <v>600</v>
+        <v>746</v>
       </c>
       <c r="M27">
-        <v>1000</v>
+        <v>692</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
@@ -1587,41 +1596,41 @@
       <c r="A28">
         <v>52074</v>
       </c>
-      <c r="B28">
-        <v>32200</v>
-      </c>
-      <c r="C28">
-        <v>32400</v>
-      </c>
-      <c r="D28">
-        <v>33100</v>
+      <c r="B28" s="4">
+        <v>37604.200000000004</v>
+      </c>
+      <c r="C28" s="4">
+        <v>105260</v>
+      </c>
+      <c r="D28" s="4">
+        <v>171042</v>
       </c>
       <c r="E28">
-        <v>41200</v>
+        <v>124008</v>
       </c>
       <c r="F28">
-        <v>45200</v>
+        <v>169240</v>
       </c>
       <c r="G28">
-        <v>32000</v>
-      </c>
-      <c r="H28">
-        <v>3400</v>
+        <v>124045</v>
+      </c>
+      <c r="H28" s="3">
+        <v>909</v>
       </c>
       <c r="I28">
-        <v>800</v>
+        <v>1075</v>
       </c>
       <c r="J28">
-        <v>4900</v>
-      </c>
-      <c r="K28">
-        <v>2100</v>
+        <v>861</v>
+      </c>
+      <c r="K28" s="4">
+        <v>660</v>
       </c>
       <c r="L28">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="M28">
-        <v>900</v>
+        <v>670</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
@@ -1629,41 +1638,41 @@
       <c r="A29">
         <v>54073</v>
       </c>
-      <c r="B29">
-        <v>81200</v>
-      </c>
-      <c r="C29">
-        <v>80500</v>
-      </c>
-      <c r="D29">
-        <v>84200</v>
+      <c r="B29" s="4">
+        <v>49243.200000000004</v>
+      </c>
+      <c r="C29" s="4">
+        <v>107622</v>
+      </c>
+      <c r="D29" s="4">
+        <v>174757</v>
       </c>
       <c r="E29">
-        <v>105400</v>
+        <v>128878</v>
       </c>
       <c r="F29">
-        <v>83700</v>
+        <v>162431</v>
       </c>
       <c r="G29">
-        <v>78400</v>
-      </c>
-      <c r="H29">
-        <v>2400</v>
+        <v>128599</v>
+      </c>
+      <c r="H29" s="3">
+        <v>900</v>
       </c>
       <c r="I29">
-        <v>700</v>
+        <v>1120</v>
       </c>
       <c r="J29">
-        <v>600</v>
-      </c>
-      <c r="K29">
-        <v>1600</v>
+        <v>889</v>
+      </c>
+      <c r="K29" s="4">
+        <v>660</v>
       </c>
       <c r="L29">
-        <v>1800</v>
+        <v>675</v>
       </c>
       <c r="M29">
-        <v>2800</v>
+        <v>676</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
@@ -1671,41 +1680,41 @@
       <c r="A30">
         <v>56072</v>
       </c>
-      <c r="B30">
-        <v>7300</v>
-      </c>
-      <c r="C30">
-        <v>7300</v>
-      </c>
-      <c r="D30">
-        <v>7300</v>
+      <c r="B30" s="4">
+        <v>61736.700000000004</v>
+      </c>
+      <c r="C30" s="4">
+        <v>92044.800000000003</v>
+      </c>
+      <c r="D30" s="4">
+        <v>209412</v>
       </c>
       <c r="E30">
-        <v>9200</v>
+        <v>133265</v>
       </c>
       <c r="F30">
-        <v>8800</v>
+        <v>168309</v>
       </c>
       <c r="G30">
-        <v>7100</v>
-      </c>
-      <c r="H30">
-        <v>1600</v>
+        <v>137154</v>
+      </c>
+      <c r="H30" s="3">
+        <v>901</v>
       </c>
       <c r="I30">
-        <v>1400</v>
+        <v>1111</v>
       </c>
       <c r="J30">
-        <v>600</v>
-      </c>
-      <c r="K30">
-        <v>1600</v>
+        <v>1123</v>
+      </c>
+      <c r="K30" s="4">
+        <v>660</v>
       </c>
       <c r="L30">
-        <v>1200</v>
+        <v>797</v>
       </c>
       <c r="M30">
-        <v>3100</v>
+        <v>804</v>
       </c>
       <c r="Q30" s="1"/>
     </row>
@@ -1713,41 +1722,41 @@
       <c r="A31">
         <v>58071</v>
       </c>
-      <c r="B31">
-        <v>227500</v>
-      </c>
-      <c r="C31">
-        <v>777800</v>
-      </c>
-      <c r="D31">
-        <v>246500</v>
+      <c r="B31" s="4">
+        <v>46162.799999999996</v>
+      </c>
+      <c r="C31" s="4">
+        <v>88604.700000000012</v>
+      </c>
+      <c r="D31" s="4">
+        <v>196337</v>
       </c>
       <c r="E31">
-        <v>240400</v>
+        <v>148435</v>
       </c>
       <c r="F31">
-        <v>213200</v>
+        <v>185672</v>
       </c>
       <c r="G31">
-        <v>206100</v>
-      </c>
-      <c r="H31">
-        <v>800</v>
+        <v>137941</v>
+      </c>
+      <c r="H31" s="3">
+        <v>918</v>
       </c>
       <c r="I31">
-        <v>800</v>
+        <v>713</v>
       </c>
       <c r="J31">
-        <v>700</v>
-      </c>
-      <c r="K31">
-        <v>1500</v>
+        <v>983</v>
+      </c>
+      <c r="K31" s="4">
+        <v>649.99999999999989</v>
       </c>
       <c r="L31">
-        <v>900</v>
+        <v>674</v>
       </c>
       <c r="M31">
-        <v>900</v>
+        <v>681</v>
       </c>
       <c r="Q31" s="1"/>
     </row>
@@ -1755,41 +1764,41 @@
       <c r="A32">
         <v>60070</v>
       </c>
-      <c r="B32">
-        <v>283400</v>
-      </c>
-      <c r="C32">
-        <v>407700</v>
-      </c>
-      <c r="D32">
-        <v>220800</v>
+      <c r="B32" s="4">
+        <v>54294.3</v>
+      </c>
+      <c r="C32" s="4">
+        <v>96456.5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>201802</v>
       </c>
       <c r="E32">
-        <v>336300</v>
+        <v>157634</v>
       </c>
       <c r="F32">
-        <v>214600</v>
+        <v>175271</v>
       </c>
       <c r="G32">
-        <v>269000</v>
-      </c>
-      <c r="H32">
-        <v>700</v>
+        <v>142622</v>
+      </c>
+      <c r="H32" s="3">
+        <v>910</v>
       </c>
       <c r="I32">
-        <v>800</v>
+        <v>1056</v>
       </c>
       <c r="J32">
-        <v>800</v>
-      </c>
-      <c r="K32">
-        <v>2000</v>
+        <v>1137</v>
+      </c>
+      <c r="K32" s="4">
+        <v>649.99999999999989</v>
       </c>
       <c r="L32">
-        <v>2200</v>
+        <v>660</v>
       </c>
       <c r="M32">
-        <v>2400</v>
+        <v>621</v>
       </c>
       <c r="Q32" s="1"/>
     </row>
@@ -1797,41 +1806,41 @@
       <c r="A33">
         <v>62069</v>
       </c>
-      <c r="B33">
-        <v>278000</v>
-      </c>
-      <c r="C33">
-        <v>168600</v>
-      </c>
-      <c r="D33">
-        <v>163400</v>
+      <c r="B33" s="4">
+        <v>50621.100000000006</v>
+      </c>
+      <c r="C33" s="4">
+        <v>83913</v>
+      </c>
+      <c r="D33" s="4">
+        <v>217143</v>
       </c>
       <c r="E33">
-        <v>220000</v>
+        <v>176022</v>
       </c>
       <c r="F33">
-        <v>163400</v>
+        <v>203169</v>
       </c>
       <c r="G33">
-        <v>164600</v>
-      </c>
-      <c r="H33">
-        <v>2900</v>
+        <v>160357</v>
+      </c>
+      <c r="H33" s="3">
+        <v>908</v>
       </c>
       <c r="I33">
-        <v>800</v>
+        <v>883</v>
       </c>
       <c r="J33">
-        <v>500</v>
-      </c>
-      <c r="K33">
-        <v>1800</v>
+        <v>736</v>
+      </c>
+      <c r="K33" s="4">
+        <v>660</v>
       </c>
       <c r="L33">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="M33">
-        <v>500</v>
+        <v>773</v>
       </c>
       <c r="Q33" s="1"/>
     </row>
@@ -1839,41 +1848,41 @@
       <c r="A34">
         <v>64068</v>
       </c>
-      <c r="B34">
-        <v>53400</v>
-      </c>
-      <c r="C34">
-        <v>56300</v>
-      </c>
-      <c r="D34">
-        <v>55000</v>
+      <c r="B34" s="4">
+        <v>63910.3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>118654</v>
+      </c>
+      <c r="D34" s="4">
+        <v>237500</v>
       </c>
       <c r="E34">
-        <v>104400</v>
+        <v>173268</v>
       </c>
       <c r="F34">
-        <v>103900</v>
+        <v>204456</v>
       </c>
       <c r="G34">
-        <v>54700</v>
-      </c>
-      <c r="H34">
-        <v>3000</v>
+        <v>152644</v>
+      </c>
+      <c r="H34" s="3">
+        <v>929</v>
       </c>
       <c r="I34">
-        <v>1800</v>
+        <v>1141</v>
       </c>
       <c r="J34">
-        <v>700</v>
-      </c>
-      <c r="K34">
-        <v>2400</v>
+        <v>793</v>
+      </c>
+      <c r="K34" s="4">
+        <v>649.99999999999989</v>
       </c>
       <c r="L34">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="M34">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="Q34" s="1"/>
     </row>
@@ -1881,41 +1890,41 @@
       <c r="A35">
         <v>66067</v>
       </c>
-      <c r="B35">
-        <v>297700</v>
-      </c>
-      <c r="C35">
-        <v>187400</v>
-      </c>
-      <c r="D35">
-        <v>193000</v>
+      <c r="B35" s="4">
+        <v>55298</v>
+      </c>
+      <c r="C35" s="4">
+        <v>104702</v>
+      </c>
+      <c r="D35" s="4">
+        <v>208344</v>
       </c>
       <c r="E35">
-        <v>257700</v>
+        <v>157719</v>
       </c>
       <c r="F35">
-        <v>197600</v>
+        <v>197462</v>
       </c>
       <c r="G35">
-        <v>184100</v>
-      </c>
-      <c r="H35">
-        <v>2500</v>
+        <v>157201</v>
+      </c>
+      <c r="H35" s="3">
+        <v>922.99999999999989</v>
       </c>
       <c r="I35">
-        <v>700</v>
+        <v>1051</v>
       </c>
       <c r="J35">
-        <v>1600</v>
-      </c>
-      <c r="K35">
-        <v>2700</v>
+        <v>723</v>
+      </c>
+      <c r="K35" s="4">
+        <v>720</v>
       </c>
       <c r="L35">
-        <v>700</v>
+        <v>824</v>
       </c>
       <c r="M35">
-        <v>600</v>
+        <v>791</v>
       </c>
       <c r="Q35" s="1"/>
     </row>
@@ -1923,41 +1932,41 @@
       <c r="A36">
         <v>68066</v>
       </c>
-      <c r="B36">
-        <v>108000</v>
-      </c>
-      <c r="C36">
-        <v>115700</v>
-      </c>
-      <c r="D36">
-        <v>127100</v>
+      <c r="B36" s="4">
+        <v>68503.400000000009</v>
+      </c>
+      <c r="C36" s="4">
+        <v>113946</v>
+      </c>
+      <c r="D36" s="4">
+        <v>201973.00000000003</v>
       </c>
       <c r="E36">
-        <v>151500</v>
+        <v>164748</v>
       </c>
       <c r="F36">
-        <v>143700</v>
+        <v>225018</v>
       </c>
       <c r="G36">
-        <v>112000</v>
-      </c>
-      <c r="H36">
-        <v>800</v>
+        <v>161908</v>
+      </c>
+      <c r="H36" s="3">
+        <v>913</v>
       </c>
       <c r="I36">
-        <v>2000</v>
+        <v>905</v>
       </c>
       <c r="J36">
-        <v>3200</v>
-      </c>
-      <c r="K36">
-        <v>1700</v>
+        <v>1053</v>
+      </c>
+      <c r="K36" s="4">
+        <v>710</v>
       </c>
       <c r="L36">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="M36">
-        <v>600</v>
+        <v>811</v>
       </c>
       <c r="Q36" s="1"/>
     </row>
@@ -1965,41 +1974,41 @@
       <c r="A37">
         <v>70065</v>
       </c>
-      <c r="B37">
-        <v>27100</v>
-      </c>
-      <c r="C37">
-        <v>26400</v>
-      </c>
-      <c r="D37">
-        <v>29700</v>
+      <c r="B37" s="4">
+        <v>54807</v>
+      </c>
+      <c r="C37" s="4">
+        <v>120140</v>
+      </c>
+      <c r="D37" s="4">
+        <v>191158</v>
       </c>
       <c r="E37">
-        <v>39600</v>
+        <v>166456</v>
       </c>
       <c r="F37">
-        <v>30100</v>
+        <v>219153</v>
       </c>
       <c r="G37">
-        <v>25700</v>
-      </c>
-      <c r="H37">
-        <v>800</v>
+        <v>167160</v>
+      </c>
+      <c r="H37" s="3">
+        <v>939</v>
       </c>
       <c r="I37">
-        <v>3700</v>
+        <v>1138</v>
       </c>
       <c r="J37">
-        <v>600</v>
-      </c>
-      <c r="K37">
-        <v>800</v>
+        <v>855</v>
+      </c>
+      <c r="K37" s="4">
+        <v>710</v>
       </c>
       <c r="L37">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M37">
-        <v>400</v>
+        <v>685</v>
       </c>
       <c r="Q37" s="1"/>
     </row>
@@ -2007,41 +2016,41 @@
       <c r="A38">
         <v>72064</v>
       </c>
-      <c r="B38">
-        <v>104100</v>
-      </c>
-      <c r="C38">
-        <v>107600</v>
-      </c>
-      <c r="D38">
-        <v>459100</v>
+      <c r="B38" s="4">
+        <v>54440.4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>143609.99999999997</v>
+      </c>
+      <c r="D38" s="4">
+        <v>221661</v>
       </c>
       <c r="E38">
-        <v>158000</v>
+        <v>171718</v>
       </c>
       <c r="F38">
-        <v>135200</v>
+        <v>246247</v>
       </c>
       <c r="G38">
-        <v>106200</v>
-      </c>
-      <c r="H38">
-        <v>1500</v>
+        <v>171498</v>
+      </c>
+      <c r="H38" s="3">
+        <v>941</v>
       </c>
       <c r="I38">
-        <v>800</v>
+        <v>924</v>
       </c>
       <c r="J38">
-        <v>600</v>
-      </c>
-      <c r="K38">
-        <v>1400</v>
+        <v>1034</v>
+      </c>
+      <c r="K38" s="4">
+        <v>720</v>
       </c>
       <c r="L38">
-        <v>1300</v>
+        <v>718</v>
       </c>
       <c r="M38">
-        <v>2200</v>
+        <v>871</v>
       </c>
       <c r="Q38" s="1"/>
     </row>
@@ -2049,41 +2058,41 @@
       <c r="A39">
         <v>74063</v>
       </c>
-      <c r="B39">
-        <v>16600</v>
-      </c>
-      <c r="C39">
-        <v>16300</v>
-      </c>
-      <c r="D39">
-        <v>17200</v>
+      <c r="B39" s="4">
+        <v>64148.100000000006</v>
+      </c>
+      <c r="C39" s="4">
+        <v>121852</v>
+      </c>
+      <c r="D39" s="4">
+        <v>270963</v>
       </c>
       <c r="E39">
-        <v>23900</v>
+        <v>179640</v>
       </c>
       <c r="F39">
-        <v>23100</v>
+        <v>221683</v>
       </c>
       <c r="G39">
-        <v>16100</v>
-      </c>
-      <c r="H39">
-        <v>1400</v>
+        <v>176541</v>
+      </c>
+      <c r="H39" s="3">
+        <v>936</v>
       </c>
       <c r="I39">
-        <v>2000</v>
+        <v>982</v>
       </c>
       <c r="J39">
-        <v>700</v>
-      </c>
-      <c r="K39">
-        <v>800</v>
+        <v>879</v>
+      </c>
+      <c r="K39" s="4">
+        <v>710</v>
       </c>
       <c r="L39">
-        <v>2700</v>
+        <v>773</v>
       </c>
       <c r="M39">
-        <v>700</v>
+        <v>644</v>
       </c>
       <c r="Q39" s="1"/>
     </row>
@@ -2091,41 +2100,41 @@
       <c r="A40">
         <v>76062</v>
       </c>
-      <c r="B40">
-        <v>160100</v>
-      </c>
-      <c r="C40">
-        <v>179700</v>
-      </c>
-      <c r="D40">
-        <v>166700</v>
+      <c r="B40" s="4">
+        <v>54828.9</v>
+      </c>
+      <c r="C40" s="4">
+        <v>143650</v>
+      </c>
+      <c r="D40" s="4">
+        <v>261369</v>
       </c>
       <c r="E40">
-        <v>371200</v>
+        <v>181113</v>
       </c>
       <c r="F40">
-        <v>219000</v>
+        <v>244603</v>
       </c>
       <c r="G40">
-        <v>512100</v>
-      </c>
-      <c r="H40">
-        <v>800</v>
+        <v>180829</v>
+      </c>
+      <c r="H40" s="3">
+        <v>911</v>
       </c>
       <c r="I40">
-        <v>1700</v>
+        <v>1016</v>
       </c>
       <c r="J40">
-        <v>400</v>
-      </c>
-      <c r="K40">
-        <v>700</v>
+        <v>1081</v>
+      </c>
+      <c r="K40" s="4">
+        <v>710</v>
       </c>
       <c r="L40">
-        <v>2500</v>
+        <v>561</v>
       </c>
       <c r="M40">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="Q40" s="1"/>
     </row>
@@ -2133,41 +2142,41 @@
       <c r="A41">
         <v>78061</v>
       </c>
-      <c r="B41">
-        <v>199700</v>
-      </c>
-      <c r="C41">
-        <v>198100</v>
-      </c>
-      <c r="D41">
-        <v>200100</v>
+      <c r="B41" s="4">
+        <v>70390.600000000006</v>
+      </c>
+      <c r="C41" s="4">
+        <v>137969</v>
+      </c>
+      <c r="D41" s="4">
+        <v>259219</v>
       </c>
       <c r="E41">
-        <v>350600</v>
+        <v>186064</v>
       </c>
       <c r="F41">
-        <v>271000</v>
+        <v>255718</v>
       </c>
       <c r="G41">
-        <v>214000</v>
-      </c>
-      <c r="H41">
-        <v>800</v>
+        <v>189027</v>
+      </c>
+      <c r="H41" s="3">
+        <v>894</v>
       </c>
       <c r="I41">
-        <v>700</v>
+        <v>838</v>
       </c>
       <c r="J41">
-        <v>600</v>
-      </c>
-      <c r="K41">
-        <v>1100</v>
+        <v>785</v>
+      </c>
+      <c r="K41" s="4">
+        <v>710</v>
       </c>
       <c r="L41">
-        <v>1900</v>
+        <v>845</v>
       </c>
       <c r="M41">
-        <v>800</v>
+        <v>661</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
@@ -2175,41 +2184,41 @@
       <c r="A42">
         <v>80060</v>
       </c>
-      <c r="B42">
-        <v>57700</v>
-      </c>
-      <c r="C42">
-        <v>64800</v>
-      </c>
-      <c r="D42">
-        <v>56000</v>
+      <c r="B42" s="4">
+        <v>84498</v>
+      </c>
+      <c r="C42" s="4">
+        <v>141687</v>
+      </c>
+      <c r="D42" s="4">
+        <v>246586</v>
       </c>
       <c r="E42">
-        <v>126100</v>
+        <v>190735</v>
       </c>
       <c r="F42">
-        <v>450100</v>
+        <v>240165</v>
       </c>
       <c r="G42">
-        <v>57500</v>
-      </c>
-      <c r="H42">
-        <v>800</v>
+        <v>190934</v>
+      </c>
+      <c r="H42" s="3">
+        <v>950</v>
       </c>
       <c r="I42">
-        <v>800</v>
+        <v>1008</v>
       </c>
       <c r="J42">
-        <v>1100</v>
-      </c>
-      <c r="K42">
-        <v>700</v>
+        <v>1001</v>
+      </c>
+      <c r="K42" s="4">
+        <v>710</v>
       </c>
       <c r="L42">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="M42">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="Q42" s="1"/>
     </row>
@@ -2217,41 +2226,41 @@
       <c r="A43">
         <v>82059</v>
       </c>
-      <c r="B43">
-        <v>126300</v>
-      </c>
-      <c r="C43">
-        <v>123600</v>
-      </c>
-      <c r="D43">
-        <v>125000</v>
+      <c r="B43" s="4">
+        <v>52263.4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>143128</v>
+      </c>
+      <c r="D43" s="4">
+        <v>236708</v>
       </c>
       <c r="E43">
-        <v>237700</v>
+        <v>197841</v>
       </c>
       <c r="F43">
-        <v>199900</v>
+        <v>264634</v>
       </c>
       <c r="G43">
-        <v>378100</v>
-      </c>
-      <c r="H43">
-        <v>900</v>
+        <v>197328</v>
+      </c>
+      <c r="H43" s="3">
+        <v>933.99999999999989</v>
       </c>
       <c r="I43">
-        <v>600</v>
+        <v>1059</v>
       </c>
       <c r="J43">
-        <v>400</v>
-      </c>
-      <c r="K43">
-        <v>600</v>
+        <v>744</v>
+      </c>
+      <c r="K43" s="4">
+        <v>730</v>
       </c>
       <c r="L43">
-        <v>600</v>
+        <v>803</v>
       </c>
       <c r="M43">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="Q43" s="1"/>
     </row>
@@ -2259,41 +2268,41 @@
       <c r="A44">
         <v>84058</v>
       </c>
-      <c r="B44">
-        <v>196200</v>
-      </c>
-      <c r="C44">
-        <v>124600</v>
-      </c>
-      <c r="D44">
-        <v>102300</v>
+      <c r="B44" s="4">
+        <v>95630.200000000012</v>
+      </c>
+      <c r="C44" s="4">
+        <v>153866</v>
+      </c>
+      <c r="D44" s="4">
+        <v>278992</v>
       </c>
       <c r="E44">
-        <v>195100</v>
+        <v>200441</v>
       </c>
       <c r="F44">
-        <v>138100</v>
+        <v>253568</v>
       </c>
       <c r="G44">
-        <v>107200</v>
-      </c>
-      <c r="H44">
-        <v>1500</v>
+        <v>199185</v>
+      </c>
+      <c r="H44" s="3">
+        <v>938</v>
       </c>
       <c r="I44">
-        <v>900</v>
+        <v>1079</v>
       </c>
       <c r="J44">
-        <v>400</v>
-      </c>
-      <c r="K44">
-        <v>700</v>
+        <v>781</v>
+      </c>
+      <c r="K44" s="4">
+        <v>710</v>
       </c>
       <c r="L44">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="M44">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="Q44" s="1"/>
     </row>
@@ -2301,41 +2310,41 @@
       <c r="A45">
         <v>86057</v>
       </c>
-      <c r="B45">
-        <v>146000</v>
-      </c>
-      <c r="C45">
-        <v>145000</v>
-      </c>
-      <c r="D45">
-        <v>143600</v>
+      <c r="B45" s="4">
+        <v>46896.6</v>
+      </c>
+      <c r="C45" s="4">
+        <v>125948</v>
+      </c>
+      <c r="D45" s="4">
+        <v>241638</v>
       </c>
       <c r="E45">
-        <v>252500</v>
+        <v>204573</v>
       </c>
       <c r="F45">
-        <v>245500</v>
+        <v>288755</v>
       </c>
       <c r="G45">
-        <v>234800</v>
-      </c>
-      <c r="H45">
-        <v>1000</v>
+        <v>204823</v>
+      </c>
+      <c r="H45" s="3">
+        <v>933.99999999999989</v>
       </c>
       <c r="I45">
-        <v>700</v>
+        <v>745</v>
       </c>
       <c r="J45">
-        <v>800</v>
-      </c>
-      <c r="K45">
-        <v>800</v>
+        <v>998</v>
+      </c>
+      <c r="K45" s="4">
+        <v>699.99999999999989</v>
       </c>
       <c r="L45">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="M45">
-        <v>600</v>
+        <v>712</v>
       </c>
       <c r="Q45" s="1"/>
     </row>
@@ -2343,41 +2352,41 @@
       <c r="A46">
         <v>88056</v>
       </c>
-      <c r="B46">
-        <v>230300</v>
-      </c>
-      <c r="C46">
-        <v>292500</v>
-      </c>
-      <c r="D46">
-        <v>226300</v>
+      <c r="B46" s="4">
+        <v>77533</v>
+      </c>
+      <c r="C46" s="4">
+        <v>154714</v>
+      </c>
+      <c r="D46" s="4">
+        <v>275683</v>
       </c>
       <c r="E46">
-        <v>390700</v>
+        <v>209936</v>
       </c>
       <c r="F46">
-        <v>374600</v>
+        <v>269111</v>
       </c>
       <c r="G46">
-        <v>226500</v>
-      </c>
-      <c r="H46">
-        <v>1200</v>
+        <v>209737</v>
+      </c>
+      <c r="H46" s="3">
+        <v>950</v>
       </c>
       <c r="I46">
-        <v>900</v>
+        <v>760</v>
       </c>
       <c r="J46">
-        <v>400</v>
-      </c>
-      <c r="K46">
-        <v>700</v>
+        <v>1022</v>
+      </c>
+      <c r="K46" s="4">
+        <v>720</v>
       </c>
       <c r="L46">
-        <v>700</v>
+        <v>825</v>
       </c>
       <c r="M46">
-        <v>2300</v>
+        <v>696</v>
       </c>
       <c r="Q46" s="1"/>
     </row>
@@ -2385,41 +2394,41 @@
       <c r="A47">
         <v>90055</v>
       </c>
-      <c r="B47">
-        <v>254800</v>
-      </c>
-      <c r="C47">
-        <v>398400</v>
-      </c>
-      <c r="D47">
-        <v>248900</v>
+      <c r="B47" s="4">
+        <v>75225.200000000012</v>
+      </c>
+      <c r="C47" s="4">
+        <v>121892</v>
+      </c>
+      <c r="D47" s="4">
+        <v>286126</v>
       </c>
       <c r="E47">
-        <v>436400</v>
+        <v>214248</v>
       </c>
       <c r="F47">
-        <v>410700</v>
+        <v>306339</v>
       </c>
       <c r="G47">
-        <v>259500</v>
-      </c>
-      <c r="H47">
-        <v>2600</v>
+        <v>214350</v>
+      </c>
+      <c r="H47" s="3">
+        <v>964</v>
       </c>
       <c r="I47">
-        <v>2200</v>
+        <v>797</v>
       </c>
       <c r="J47">
-        <v>700</v>
-      </c>
-      <c r="K47">
-        <v>800</v>
+        <v>1049</v>
+      </c>
+      <c r="K47" s="4">
+        <v>730</v>
       </c>
       <c r="L47">
-        <v>800</v>
+        <v>622</v>
       </c>
       <c r="M47">
-        <v>800</v>
+        <v>605</v>
       </c>
       <c r="Q47" s="1"/>
     </row>
@@ -2427,41 +2436,41 @@
       <c r="A48">
         <v>92054</v>
       </c>
-      <c r="B48">
-        <v>28400</v>
-      </c>
-      <c r="C48">
-        <v>26600</v>
-      </c>
-      <c r="D48">
-        <v>26300</v>
+      <c r="B48" s="4">
+        <v>65530</v>
+      </c>
+      <c r="C48" s="4">
+        <v>171060</v>
+      </c>
+      <c r="D48" s="4">
+        <v>327373.00000000006</v>
       </c>
       <c r="E48">
-        <v>46100</v>
+        <v>219306</v>
       </c>
       <c r="F48">
-        <v>43400</v>
+        <v>280326</v>
       </c>
       <c r="G48">
-        <v>28000</v>
-      </c>
-      <c r="H48">
-        <v>2900</v>
+        <v>218830</v>
+      </c>
+      <c r="H48" s="3">
+        <v>933</v>
       </c>
       <c r="I48">
-        <v>2500</v>
+        <v>834</v>
       </c>
       <c r="J48">
-        <v>600</v>
-      </c>
-      <c r="K48">
-        <v>1500</v>
+        <v>1128</v>
+      </c>
+      <c r="K48" s="4">
+        <v>720</v>
       </c>
       <c r="L48">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="M48">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="Q48" s="1"/>
     </row>
@@ -2469,41 +2478,41 @@
       <c r="A49">
         <v>94053</v>
       </c>
-      <c r="B49">
-        <v>240000</v>
-      </c>
-      <c r="C49">
-        <v>265500</v>
-      </c>
-      <c r="D49">
-        <v>237300</v>
+      <c r="B49" s="4">
+        <v>79528.3</v>
+      </c>
+      <c r="C49" s="4">
+        <v>165189</v>
+      </c>
+      <c r="D49" s="4">
+        <v>248868</v>
       </c>
       <c r="E49">
-        <v>423800</v>
+        <v>224324</v>
       </c>
       <c r="F49">
-        <v>406400</v>
+        <v>321370</v>
       </c>
       <c r="G49">
-        <v>251000</v>
-      </c>
-      <c r="H49">
-        <v>2400</v>
+        <v>227587</v>
+      </c>
+      <c r="H49" s="3">
+        <v>948</v>
       </c>
       <c r="I49">
-        <v>1600</v>
+        <v>1070</v>
       </c>
       <c r="J49">
-        <v>600</v>
-      </c>
-      <c r="K49">
-        <v>2600</v>
+        <v>803</v>
+      </c>
+      <c r="K49" s="4">
+        <v>730</v>
       </c>
       <c r="L49">
-        <v>600</v>
+        <v>897</v>
       </c>
       <c r="M49">
-        <v>600</v>
+        <v>746</v>
       </c>
       <c r="Q49" s="1"/>
     </row>
@@ -2511,41 +2520,41 @@
       <c r="A50">
         <v>96052</v>
       </c>
-      <c r="B50">
-        <v>197300</v>
-      </c>
-      <c r="C50">
-        <v>196300</v>
-      </c>
-      <c r="D50">
-        <v>201700</v>
+      <c r="B50" s="4">
+        <v>77596.2</v>
+      </c>
+      <c r="C50" s="4">
+        <v>149326.99999999997</v>
+      </c>
+      <c r="D50" s="4">
+        <v>293269</v>
       </c>
       <c r="E50">
-        <v>387400</v>
+        <v>231086</v>
       </c>
       <c r="F50">
-        <v>320600</v>
+        <v>287597</v>
       </c>
       <c r="G50">
-        <v>252400</v>
-      </c>
-      <c r="H50">
-        <v>2200</v>
+        <v>228394</v>
+      </c>
+      <c r="H50" s="3">
+        <v>935</v>
       </c>
       <c r="I50">
-        <v>3100</v>
+        <v>1146</v>
       </c>
       <c r="J50">
-        <v>700</v>
-      </c>
-      <c r="K50">
-        <v>2700</v>
+        <v>988</v>
+      </c>
+      <c r="K50" s="4">
+        <v>710</v>
       </c>
       <c r="L50">
-        <v>1600</v>
+        <v>706</v>
       </c>
       <c r="M50">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
@@ -2553,41 +2562,41 @@
       <c r="A51">
         <v>98051</v>
       </c>
-      <c r="B51">
-        <v>105800</v>
-      </c>
-      <c r="C51">
-        <v>105200</v>
-      </c>
-      <c r="D51">
-        <v>105500</v>
+      <c r="B51" s="4">
+        <v>53137.3</v>
+      </c>
+      <c r="C51" s="4">
+        <v>148725</v>
+      </c>
+      <c r="D51" s="4">
+        <v>284216.00000000006</v>
       </c>
       <c r="E51">
-        <v>183900</v>
+        <v>233468</v>
       </c>
       <c r="F51">
-        <v>208000</v>
+        <v>298954</v>
       </c>
       <c r="G51">
-        <v>108100</v>
-      </c>
-      <c r="H51">
-        <v>900</v>
+        <v>242486</v>
+      </c>
+      <c r="H51" s="3">
+        <v>953</v>
       </c>
       <c r="I51">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="J51">
-        <v>700</v>
-      </c>
-      <c r="K51">
-        <v>2800</v>
+        <v>854</v>
+      </c>
+      <c r="K51" s="4">
+        <v>720</v>
       </c>
       <c r="L51">
-        <v>700</v>
+        <v>656</v>
       </c>
       <c r="M51">
-        <v>600</v>
+        <v>789</v>
       </c>
       <c r="Q51" s="1"/>
     </row>
@@ -2595,41 +2604,41 @@
       <c r="A52">
         <v>100050</v>
       </c>
-      <c r="B52">
-        <v>201700</v>
-      </c>
-      <c r="C52">
-        <v>201800</v>
-      </c>
-      <c r="D52">
-        <v>320700</v>
+      <c r="B52" s="4">
+        <v>69748.7</v>
+      </c>
+      <c r="C52" s="4">
+        <v>154171</v>
+      </c>
+      <c r="D52" s="4">
+        <v>369045</v>
       </c>
       <c r="E52">
-        <v>353700</v>
+        <v>238142</v>
       </c>
       <c r="F52">
-        <v>369700</v>
+        <v>303029</v>
       </c>
       <c r="G52">
-        <v>455100</v>
-      </c>
-      <c r="H52">
-        <v>800</v>
+        <v>238100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>942</v>
       </c>
       <c r="I52">
-        <v>2600</v>
+        <v>1172</v>
       </c>
       <c r="J52">
-        <v>1700</v>
-      </c>
-      <c r="K52">
-        <v>1200</v>
+        <v>735</v>
+      </c>
+      <c r="K52" s="4">
+        <v>699.99999999999989</v>
       </c>
       <c r="L52">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M52">
-        <v>900</v>
+        <v>592</v>
       </c>
       <c r="Q52" s="1"/>
     </row>
@@ -2637,41 +2646,41 @@
       <c r="A53">
         <v>102049</v>
       </c>
-      <c r="B53">
-        <v>373600</v>
-      </c>
-      <c r="C53">
-        <v>250300</v>
-      </c>
-      <c r="D53">
-        <v>466100</v>
+      <c r="B53" s="4">
+        <v>95306.1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>142857.00000000003</v>
+      </c>
+      <c r="D53" s="4">
+        <v>315000</v>
       </c>
       <c r="E53">
-        <v>441000</v>
+        <v>245461</v>
       </c>
       <c r="F53">
-        <v>525800</v>
+        <v>306771</v>
       </c>
       <c r="G53">
-        <v>311400</v>
-      </c>
-      <c r="H53">
-        <v>1800</v>
+        <v>242856</v>
+      </c>
+      <c r="H53" s="3">
+        <v>955</v>
       </c>
       <c r="I53">
-        <v>3100</v>
+        <v>1187</v>
       </c>
       <c r="J53">
-        <v>800</v>
-      </c>
-      <c r="K53">
-        <v>900</v>
+        <v>808</v>
+      </c>
+      <c r="K53" s="4">
+        <v>720</v>
       </c>
       <c r="L53">
-        <v>600</v>
+        <v>881</v>
       </c>
       <c r="M53">
-        <v>700</v>
+        <v>614</v>
       </c>
       <c r="Q53" s="1"/>
     </row>
@@ -2679,41 +2688,41 @@
       <c r="A54">
         <v>104048</v>
       </c>
-      <c r="B54">
-        <v>49600</v>
-      </c>
-      <c r="C54">
-        <v>49900</v>
-      </c>
-      <c r="D54">
-        <v>49600</v>
+      <c r="B54" s="4">
+        <v>80625</v>
+      </c>
+      <c r="C54" s="4">
+        <v>142917</v>
+      </c>
+      <c r="D54" s="4">
+        <v>360313</v>
       </c>
       <c r="E54">
-        <v>86900</v>
+        <v>247044</v>
       </c>
       <c r="F54">
-        <v>101600</v>
+        <v>316691</v>
       </c>
       <c r="G54">
-        <v>51600</v>
-      </c>
-      <c r="H54">
-        <v>1700</v>
+        <v>247959</v>
+      </c>
+      <c r="H54" s="3">
+        <v>961.99999999999989</v>
       </c>
       <c r="I54">
-        <v>600</v>
+        <v>998</v>
       </c>
       <c r="J54">
-        <v>500</v>
-      </c>
-      <c r="K54">
-        <v>2000</v>
+        <v>1019</v>
+      </c>
+      <c r="K54" s="4">
+        <v>710</v>
       </c>
       <c r="L54">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="M54">
-        <v>500</v>
+        <v>628</v>
       </c>
       <c r="Q54" s="1"/>
     </row>
@@ -2721,41 +2730,41 @@
       <c r="A55">
         <v>106047</v>
       </c>
-      <c r="B55">
-        <v>3500</v>
-      </c>
-      <c r="C55">
-        <v>3200</v>
-      </c>
-      <c r="D55">
-        <v>3600</v>
+      <c r="B55" s="4">
+        <v>65425.5</v>
+      </c>
+      <c r="C55" s="4">
+        <v>174468.00000000003</v>
+      </c>
+      <c r="D55" s="4">
+        <v>348511</v>
       </c>
       <c r="E55">
-        <v>5400</v>
+        <v>257385</v>
       </c>
       <c r="F55">
-        <v>5200</v>
+        <v>323322</v>
       </c>
       <c r="G55">
-        <v>3900</v>
-      </c>
-      <c r="H55">
-        <v>900</v>
+        <v>254328</v>
+      </c>
+      <c r="H55" s="3">
+        <v>986</v>
       </c>
       <c r="I55">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="J55">
-        <v>600</v>
-      </c>
-      <c r="K55">
-        <v>1100</v>
+        <v>1149</v>
+      </c>
+      <c r="K55" s="4">
+        <v>720</v>
       </c>
       <c r="L55">
-        <v>700</v>
+        <v>595</v>
       </c>
       <c r="M55">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="Q55" s="1"/>
     </row>
@@ -2763,41 +2772,41 @@
       <c r="A56">
         <v>108046</v>
       </c>
-      <c r="B56">
-        <v>323600</v>
-      </c>
-      <c r="C56">
-        <v>323000</v>
-      </c>
-      <c r="D56">
-        <v>319500</v>
+      <c r="B56" s="4">
+        <v>106162</v>
+      </c>
+      <c r="C56" s="4">
+        <v>127243</v>
+      </c>
+      <c r="D56" s="4">
+        <v>294919</v>
       </c>
       <c r="E56">
-        <v>697700</v>
+        <v>257861</v>
       </c>
       <c r="F56">
-        <v>499000</v>
+        <v>328781</v>
       </c>
       <c r="G56">
-        <v>313800</v>
-      </c>
-      <c r="H56">
-        <v>900</v>
+        <v>259974</v>
+      </c>
+      <c r="H56" s="3">
+        <v>941</v>
       </c>
       <c r="I56">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="J56">
-        <v>1100</v>
-      </c>
-      <c r="K56">
-        <v>800</v>
+        <v>1076</v>
+      </c>
+      <c r="K56" s="4">
+        <v>710</v>
       </c>
       <c r="L56">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="M56">
-        <v>700</v>
+        <v>639</v>
       </c>
       <c r="Q56" s="1"/>
     </row>
@@ -2805,41 +2814,41 @@
       <c r="A57">
         <v>110045</v>
       </c>
-      <c r="B57">
-        <v>79900</v>
-      </c>
-      <c r="C57">
-        <v>78100</v>
-      </c>
-      <c r="D57">
-        <v>77800</v>
+      <c r="B57" s="4">
+        <v>63867.4</v>
+      </c>
+      <c r="C57" s="4">
+        <v>152486</v>
+      </c>
+      <c r="D57" s="4">
+        <v>346077.00000000006</v>
       </c>
       <c r="E57">
-        <v>138000</v>
+        <v>288073</v>
       </c>
       <c r="F57">
-        <v>110800</v>
+        <v>330769</v>
       </c>
       <c r="G57">
-        <v>313400</v>
-      </c>
-      <c r="H57">
-        <v>800</v>
+        <v>272932</v>
+      </c>
+      <c r="H57" s="3">
+        <v>977</v>
       </c>
       <c r="I57">
-        <v>800</v>
+        <v>1117</v>
       </c>
       <c r="J57">
-        <v>700</v>
-      </c>
-      <c r="K57">
-        <v>1000</v>
+        <v>798</v>
+      </c>
+      <c r="K57" s="4">
+        <v>710</v>
       </c>
       <c r="L57">
-        <v>600</v>
+        <v>694</v>
       </c>
       <c r="M57">
-        <v>600</v>
+        <v>821</v>
       </c>
       <c r="Q57" s="1"/>
     </row>
@@ -2847,41 +2856,41 @@
       <c r="A58">
         <v>112044</v>
       </c>
-      <c r="B58">
-        <v>128600</v>
-      </c>
-      <c r="C58">
-        <v>149700</v>
-      </c>
-      <c r="D58">
-        <v>129100</v>
+      <c r="B58" s="4">
+        <v>85056.200000000012</v>
+      </c>
+      <c r="C58" s="4">
+        <v>170562</v>
+      </c>
+      <c r="D58" s="4">
+        <v>348652</v>
       </c>
       <c r="E58">
-        <v>224300</v>
+        <v>309507</v>
       </c>
       <c r="F58">
-        <v>161000</v>
+        <v>336103</v>
       </c>
       <c r="G58">
-        <v>130800</v>
-      </c>
-      <c r="H58">
-        <v>800</v>
+        <v>266563</v>
+      </c>
+      <c r="H58" s="3">
+        <v>979</v>
       </c>
       <c r="I58">
-        <v>1600</v>
+        <v>1079</v>
       </c>
       <c r="J58">
-        <v>400</v>
-      </c>
-      <c r="K58">
-        <v>2500</v>
+        <v>976</v>
+      </c>
+      <c r="K58" s="4">
+        <v>720</v>
       </c>
       <c r="L58">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="M58">
-        <v>900</v>
+        <v>623</v>
       </c>
       <c r="Q58" s="1"/>
     </row>
@@ -2889,41 +2898,41 @@
       <c r="A59">
         <v>114043</v>
       </c>
-      <c r="B59">
-        <v>40700</v>
-      </c>
-      <c r="C59">
-        <v>44300</v>
-      </c>
-      <c r="D59">
-        <v>41300</v>
+      <c r="B59" s="4">
+        <v>98400</v>
+      </c>
+      <c r="C59" s="4">
+        <v>204800</v>
+      </c>
+      <c r="D59" s="4">
+        <v>379429</v>
       </c>
       <c r="E59">
-        <v>71800</v>
+        <v>319094</v>
       </c>
       <c r="F59">
-        <v>56000</v>
+        <v>341019</v>
       </c>
       <c r="G59">
-        <v>41100</v>
-      </c>
-      <c r="H59">
-        <v>800</v>
+        <v>271757</v>
+      </c>
+      <c r="H59" s="3">
+        <v>955</v>
       </c>
       <c r="I59">
-        <v>700</v>
+        <v>761</v>
       </c>
       <c r="J59">
-        <v>700</v>
-      </c>
-      <c r="K59">
-        <v>800</v>
+        <v>1005</v>
+      </c>
+      <c r="K59" s="4">
+        <v>710</v>
       </c>
       <c r="L59">
-        <v>700</v>
+        <v>608</v>
       </c>
       <c r="M59">
-        <v>600</v>
+        <v>842</v>
       </c>
       <c r="Q59" s="1"/>
     </row>
@@ -2931,41 +2940,41 @@
       <c r="A60">
         <v>116042</v>
       </c>
-      <c r="B60">
-        <v>355300</v>
-      </c>
-      <c r="C60">
-        <v>1023900</v>
-      </c>
-      <c r="D60">
-        <v>483100</v>
+      <c r="B60" s="4">
+        <v>129186</v>
+      </c>
+      <c r="C60" s="4">
+        <v>195116.00000000003</v>
+      </c>
+      <c r="D60" s="4">
+        <v>376163.00000000006</v>
       </c>
       <c r="E60">
-        <v>615000</v>
+        <v>290777</v>
       </c>
       <c r="F60">
-        <v>518500</v>
+        <v>365069</v>
       </c>
       <c r="G60">
-        <v>398600</v>
-      </c>
-      <c r="H60">
-        <v>1600</v>
+        <v>276730</v>
+      </c>
+      <c r="H60" s="3">
+        <v>959</v>
       </c>
       <c r="I60">
-        <v>1500</v>
+        <v>814</v>
       </c>
       <c r="J60">
-        <v>700</v>
-      </c>
-      <c r="K60">
-        <v>800</v>
+        <v>946</v>
+      </c>
+      <c r="K60" s="4">
+        <v>720</v>
       </c>
       <c r="L60">
-        <v>700</v>
+        <v>559</v>
       </c>
       <c r="M60">
-        <v>700</v>
+        <v>557</v>
       </c>
       <c r="Q60" s="1"/>
     </row>
@@ -2973,41 +2982,41 @@
       <c r="A61">
         <v>118041</v>
       </c>
-      <c r="B61">
-        <v>384800</v>
-      </c>
-      <c r="C61">
-        <v>454400</v>
-      </c>
-      <c r="D61">
-        <v>1246300</v>
+      <c r="B61" s="4">
+        <v>86982.200000000012</v>
+      </c>
+      <c r="C61" s="4">
+        <v>164497</v>
+      </c>
+      <c r="D61" s="4">
+        <v>400828</v>
       </c>
       <c r="E61">
-        <v>698000</v>
+        <v>295184</v>
       </c>
       <c r="F61">
-        <v>589700</v>
+        <v>352924</v>
       </c>
       <c r="G61">
-        <v>411900</v>
-      </c>
-      <c r="H61">
-        <v>2000</v>
+        <v>281668</v>
+      </c>
+      <c r="H61" s="3">
+        <v>968</v>
       </c>
       <c r="I61">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="J61">
-        <v>1800</v>
-      </c>
-      <c r="K61">
-        <v>1000</v>
+        <v>1164</v>
+      </c>
+      <c r="K61" s="4">
+        <v>710</v>
       </c>
       <c r="L61">
-        <v>1000</v>
+        <v>757</v>
       </c>
       <c r="M61">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="Q61" s="1"/>
     </row>
@@ -3015,41 +3024,41 @@
       <c r="A62">
         <v>120040</v>
       </c>
-      <c r="B62">
-        <v>24400</v>
-      </c>
-      <c r="C62">
-        <v>25000</v>
-      </c>
-      <c r="D62">
-        <v>24200</v>
+      <c r="B62" s="4">
+        <v>125060</v>
+      </c>
+      <c r="C62" s="4">
+        <v>215422</v>
+      </c>
+      <c r="D62" s="4">
+        <v>376385.00000000006</v>
       </c>
       <c r="E62">
-        <v>35300</v>
+        <v>318876</v>
       </c>
       <c r="F62">
-        <v>39700</v>
+        <v>365971</v>
       </c>
       <c r="G62">
-        <v>23600</v>
-      </c>
-      <c r="H62">
-        <v>1000</v>
+        <v>286115</v>
+      </c>
+      <c r="H62" s="3">
+        <v>950.99999999999989</v>
       </c>
       <c r="I62">
-        <v>800</v>
+        <v>1026</v>
       </c>
       <c r="J62">
-        <v>600</v>
-      </c>
-      <c r="K62">
-        <v>800</v>
+        <v>986</v>
+      </c>
+      <c r="K62" s="4">
+        <v>699.99999999999989</v>
       </c>
       <c r="L62">
-        <v>800</v>
+        <v>593</v>
       </c>
       <c r="M62">
-        <v>600</v>
+        <v>757</v>
       </c>
       <c r="Q62" s="1"/>
     </row>
@@ -3057,41 +3066,41 @@
       <c r="A63">
         <v>122039</v>
       </c>
-      <c r="B63">
-        <v>17700</v>
-      </c>
-      <c r="C63">
-        <v>25600</v>
-      </c>
-      <c r="D63">
-        <v>15700</v>
+      <c r="B63" s="4">
+        <v>94601.200000000012</v>
+      </c>
+      <c r="C63" s="4">
+        <v>186012</v>
+      </c>
+      <c r="D63" s="4">
+        <v>387485.00000000006</v>
       </c>
       <c r="E63">
-        <v>26200</v>
+        <v>291644</v>
       </c>
       <c r="F63">
-        <v>31200</v>
+        <v>365185</v>
       </c>
       <c r="G63">
-        <v>18800</v>
-      </c>
-      <c r="H63">
-        <v>2400</v>
+        <v>291123</v>
+      </c>
+      <c r="H63" s="3">
+        <v>986</v>
       </c>
       <c r="I63">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="J63">
-        <v>1300</v>
-      </c>
-      <c r="K63">
-        <v>800</v>
+        <v>1149</v>
+      </c>
+      <c r="K63" s="4">
+        <v>720</v>
       </c>
       <c r="L63">
-        <v>1200</v>
+        <v>644</v>
       </c>
       <c r="M63">
-        <v>500</v>
+        <v>851</v>
       </c>
       <c r="Q63" s="1"/>
     </row>
@@ -3099,41 +3108,41 @@
       <c r="A64">
         <v>124038</v>
       </c>
-      <c r="B64">
-        <v>68000</v>
-      </c>
-      <c r="C64">
-        <v>46400</v>
-      </c>
-      <c r="D64">
-        <v>28600</v>
+      <c r="B64" s="4">
+        <v>75031.100000000006</v>
+      </c>
+      <c r="C64" s="4">
+        <v>157391</v>
+      </c>
+      <c r="D64" s="4">
+        <v>396894.00000000006</v>
       </c>
       <c r="E64">
-        <v>49900</v>
+        <v>319779</v>
       </c>
       <c r="F64">
-        <v>55400</v>
+        <v>380117</v>
       </c>
       <c r="G64">
-        <v>34500</v>
-      </c>
-      <c r="H64">
-        <v>900</v>
+        <v>304961</v>
+      </c>
+      <c r="H64" s="3">
+        <v>950</v>
       </c>
       <c r="I64">
-        <v>800</v>
+        <v>1071</v>
       </c>
       <c r="J64">
-        <v>800</v>
-      </c>
-      <c r="K64">
-        <v>800</v>
+        <v>1150</v>
+      </c>
+      <c r="K64" s="4">
+        <v>710</v>
       </c>
       <c r="L64">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="M64">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="Q64" s="1"/>
     </row>
@@ -3141,41 +3150,41 @@
       <c r="A65">
         <v>126037</v>
       </c>
-      <c r="B65">
-        <v>22600</v>
-      </c>
-      <c r="C65">
-        <v>21800</v>
-      </c>
-      <c r="D65">
-        <v>26000</v>
+      <c r="B65" s="4">
+        <v>94557</v>
+      </c>
+      <c r="C65" s="4">
+        <v>184684</v>
+      </c>
+      <c r="D65" s="4">
+        <v>341646</v>
       </c>
       <c r="E65">
-        <v>32500</v>
+        <v>313433</v>
       </c>
       <c r="F65">
-        <v>38500</v>
+        <v>381261</v>
       </c>
       <c r="G65">
-        <v>23700</v>
-      </c>
-      <c r="H65">
-        <v>1900</v>
+        <v>309001</v>
+      </c>
+      <c r="H65" s="3">
+        <v>965</v>
       </c>
       <c r="I65">
-        <v>2000</v>
+        <v>1115</v>
       </c>
       <c r="J65">
-        <v>1700</v>
-      </c>
-      <c r="K65">
-        <v>600</v>
+        <v>758</v>
+      </c>
+      <c r="K65" s="4">
+        <v>710</v>
       </c>
       <c r="L65">
-        <v>800</v>
+        <v>851</v>
       </c>
       <c r="M65">
-        <v>900</v>
+        <v>787</v>
       </c>
       <c r="Q65" s="1"/>
     </row>
@@ -3183,41 +3192,41 @@
       <c r="A66">
         <v>128036</v>
       </c>
-      <c r="B66">
-        <v>253300</v>
-      </c>
-      <c r="C66">
-        <v>222000</v>
-      </c>
-      <c r="D66">
-        <v>193100</v>
+      <c r="B66" s="4">
+        <v>126410</v>
+      </c>
+      <c r="C66" s="4">
+        <v>220000</v>
+      </c>
+      <c r="D66" s="4">
+        <v>375641</v>
       </c>
       <c r="E66">
-        <v>368600</v>
+        <v>306614</v>
       </c>
       <c r="F66">
-        <v>416700</v>
+        <v>390380</v>
       </c>
       <c r="G66">
-        <v>221300</v>
-      </c>
-      <c r="H66">
-        <v>2600</v>
+        <v>306460</v>
+      </c>
+      <c r="H66" s="3">
+        <v>970</v>
       </c>
       <c r="I66">
-        <v>1600</v>
+        <v>751</v>
       </c>
       <c r="J66">
-        <v>600</v>
-      </c>
-      <c r="K66">
-        <v>1900</v>
+        <v>997</v>
+      </c>
+      <c r="K66" s="4">
+        <v>710</v>
       </c>
       <c r="L66">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="M66">
-        <v>2000</v>
+        <v>771</v>
       </c>
       <c r="Q66" s="1"/>
     </row>
@@ -3225,41 +3234,41 @@
       <c r="A67">
         <v>130035</v>
       </c>
-      <c r="B67">
-        <v>339500</v>
-      </c>
-      <c r="C67">
-        <v>343100</v>
-      </c>
-      <c r="D67">
-        <v>370900</v>
+      <c r="B67" s="4">
+        <v>68888.900000000009</v>
+      </c>
+      <c r="C67" s="4">
+        <v>202091</v>
+      </c>
+      <c r="D67" s="4">
+        <v>395033</v>
       </c>
       <c r="E67">
-        <v>579200</v>
+        <v>309377</v>
       </c>
       <c r="F67">
-        <v>578400</v>
+        <v>390665</v>
       </c>
       <c r="G67">
-        <v>354500</v>
-      </c>
-      <c r="H67">
-        <v>900</v>
+        <v>310177</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1001.8000000000001</v>
       </c>
       <c r="I67">
-        <v>800</v>
+        <v>921</v>
       </c>
       <c r="J67">
-        <v>700</v>
-      </c>
-      <c r="K67">
-        <v>700</v>
+        <v>1204</v>
+      </c>
+      <c r="K67" s="4">
+        <v>720</v>
       </c>
       <c r="L67">
-        <v>600</v>
+        <v>724</v>
       </c>
       <c r="M67">
-        <v>600</v>
+        <v>716</v>
       </c>
       <c r="Q67" s="1"/>
     </row>
@@ -3267,41 +3276,41 @@
       <c r="A68">
         <v>132034</v>
       </c>
-      <c r="B68">
-        <v>451800</v>
-      </c>
-      <c r="C68">
-        <v>631200</v>
-      </c>
-      <c r="D68">
-        <v>400900</v>
+      <c r="B68" s="4">
+        <v>107550</v>
+      </c>
+      <c r="C68" s="4">
+        <v>265298</v>
+      </c>
+      <c r="D68" s="4">
+        <v>366887</v>
       </c>
       <c r="E68">
-        <v>707700</v>
+        <v>334343</v>
       </c>
       <c r="F68">
-        <v>1322100</v>
+        <v>449895</v>
       </c>
       <c r="G68">
-        <v>459900</v>
-      </c>
-      <c r="H68">
-        <v>1500</v>
+        <v>317225</v>
+      </c>
+      <c r="H68" s="3">
+        <v>986</v>
       </c>
       <c r="I68">
-        <v>800</v>
+        <v>1031</v>
       </c>
       <c r="J68">
-        <v>600</v>
-      </c>
-      <c r="K68">
-        <v>600</v>
+        <v>1159</v>
+      </c>
+      <c r="K68" s="4">
+        <v>760</v>
       </c>
       <c r="L68">
-        <v>700</v>
+        <v>819</v>
       </c>
       <c r="M68">
-        <v>600</v>
+        <v>768</v>
       </c>
       <c r="Q68" s="1"/>
     </row>
@@ -3309,41 +3318,41 @@
       <c r="A69">
         <v>134033</v>
       </c>
-      <c r="B69">
-        <v>971700</v>
-      </c>
-      <c r="C69">
-        <v>123400</v>
-      </c>
-      <c r="D69">
-        <v>106200</v>
+      <c r="B69" s="4">
+        <v>99328.900000000009</v>
+      </c>
+      <c r="C69" s="4">
+        <v>213557</v>
+      </c>
+      <c r="D69" s="4">
+        <v>339329</v>
       </c>
       <c r="E69">
-        <v>178900</v>
+        <v>318606</v>
       </c>
       <c r="F69">
-        <v>199800</v>
+        <v>454729</v>
       </c>
       <c r="G69">
-        <v>124900</v>
-      </c>
-      <c r="H69">
-        <v>1100</v>
+        <v>320359</v>
+      </c>
+      <c r="H69" s="3">
+        <v>988</v>
       </c>
       <c r="I69">
-        <v>1400</v>
+        <v>1010</v>
       </c>
       <c r="J69">
-        <v>1400</v>
-      </c>
-      <c r="K69">
-        <v>600</v>
+        <v>1161</v>
+      </c>
+      <c r="K69" s="4">
+        <v>770</v>
       </c>
       <c r="L69">
-        <v>600</v>
+        <v>945</v>
       </c>
       <c r="M69">
-        <v>600</v>
+        <v>827</v>
       </c>
       <c r="Q69" s="1"/>
     </row>
@@ -3351,41 +3360,41 @@
       <c r="A70">
         <v>136032</v>
       </c>
-      <c r="B70">
-        <v>305400</v>
-      </c>
-      <c r="C70">
-        <v>296200</v>
-      </c>
-      <c r="D70">
-        <v>268500</v>
+      <c r="B70" s="4">
+        <v>100136</v>
+      </c>
+      <c r="C70" s="4">
+        <v>221905</v>
+      </c>
+      <c r="D70" s="4">
+        <v>364490</v>
       </c>
       <c r="E70">
-        <v>386200</v>
+        <v>327729</v>
       </c>
       <c r="F70">
-        <v>352100</v>
+        <v>475036</v>
       </c>
       <c r="G70">
-        <v>283900</v>
-      </c>
-      <c r="H70">
-        <v>1700</v>
+        <v>326960</v>
+      </c>
+      <c r="H70" s="3">
+        <v>985</v>
       </c>
       <c r="I70">
-        <v>600</v>
+        <v>1048</v>
       </c>
       <c r="J70">
-        <v>1900</v>
-      </c>
-      <c r="K70">
-        <v>1400</v>
+        <v>1022</v>
+      </c>
+      <c r="K70" s="4">
+        <v>760</v>
       </c>
       <c r="L70">
-        <v>1100</v>
+        <v>938</v>
       </c>
       <c r="M70">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="Q70" s="1"/>
     </row>
@@ -3393,41 +3402,41 @@
       <c r="A71">
         <v>138031</v>
       </c>
-      <c r="B71">
-        <v>35500</v>
-      </c>
-      <c r="C71">
-        <v>30300</v>
-      </c>
-      <c r="D71">
-        <v>25200</v>
+      <c r="B71" s="4">
+        <v>76111.100000000006</v>
+      </c>
+      <c r="C71" s="4">
+        <v>228750</v>
+      </c>
+      <c r="D71" s="4">
+        <v>497639</v>
       </c>
       <c r="E71">
-        <v>35500</v>
+        <v>327660</v>
       </c>
       <c r="F71">
-        <v>42400</v>
+        <v>477520</v>
       </c>
       <c r="G71">
-        <v>29800</v>
-      </c>
-      <c r="H71">
-        <v>1800</v>
+        <v>329281</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1004.8</v>
       </c>
       <c r="I71">
-        <v>700</v>
+        <v>1129</v>
       </c>
       <c r="J71">
-        <v>1000</v>
-      </c>
-      <c r="K71">
-        <v>1300</v>
+        <v>1185</v>
+      </c>
+      <c r="K71" s="4">
+        <v>760</v>
       </c>
       <c r="L71">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="M71">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="Q71" s="1"/>
     </row>
@@ -3435,41 +3444,41 @@
       <c r="A72">
         <v>140030</v>
       </c>
-      <c r="B72">
-        <v>446300</v>
-      </c>
-      <c r="C72">
-        <v>418800</v>
-      </c>
-      <c r="D72">
-        <v>521300</v>
+      <c r="B72" s="4">
+        <v>127606</v>
+      </c>
+      <c r="C72" s="4">
+        <v>253662</v>
+      </c>
+      <c r="D72" s="4">
+        <v>494789</v>
       </c>
       <c r="E72">
-        <v>544100</v>
+        <v>333634</v>
       </c>
       <c r="F72">
-        <v>490800</v>
+        <v>477186</v>
       </c>
       <c r="G72">
-        <v>407500</v>
-      </c>
-      <c r="H72">
-        <v>800</v>
+        <v>347788</v>
+      </c>
+      <c r="H72" s="3">
+        <v>966</v>
       </c>
       <c r="I72">
-        <v>700</v>
+        <v>937</v>
       </c>
       <c r="J72">
-        <v>1400</v>
-      </c>
-      <c r="K72">
-        <v>400</v>
+        <v>1195</v>
+      </c>
+      <c r="K72" s="4">
+        <v>760</v>
       </c>
       <c r="L72">
-        <v>500</v>
+        <v>746</v>
       </c>
       <c r="M72">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="Q72" s="1"/>
     </row>
@@ -3477,41 +3486,41 @@
       <c r="A73">
         <v>142029</v>
       </c>
-      <c r="B73">
-        <v>174100</v>
-      </c>
-      <c r="C73">
-        <v>166500</v>
-      </c>
-      <c r="D73">
-        <v>147800</v>
+      <c r="B73" s="4">
+        <v>116286</v>
+      </c>
+      <c r="C73" s="4">
+        <v>252571</v>
+      </c>
+      <c r="D73" s="4">
+        <v>476286</v>
       </c>
       <c r="E73">
-        <v>204700</v>
+        <v>340448</v>
       </c>
       <c r="F73">
-        <v>198700</v>
+        <v>446728</v>
       </c>
       <c r="G73">
-        <v>152400</v>
-      </c>
-      <c r="H73">
-        <v>2400</v>
+        <v>339112</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1030</v>
       </c>
       <c r="I73">
-        <v>600</v>
+        <v>1189</v>
       </c>
       <c r="J73">
-        <v>800</v>
-      </c>
-      <c r="K73">
-        <v>800</v>
+        <v>790</v>
+      </c>
+      <c r="K73" s="4">
+        <v>770</v>
       </c>
       <c r="L73">
-        <v>2700</v>
+        <v>956</v>
       </c>
       <c r="M73">
-        <v>1400</v>
+        <v>720</v>
       </c>
       <c r="Q73" s="1"/>
     </row>
@@ -3519,41 +3528,41 @@
       <c r="A74">
         <v>144028</v>
       </c>
-      <c r="B74">
-        <v>332800</v>
-      </c>
-      <c r="C74">
-        <v>197600</v>
-      </c>
-      <c r="D74">
-        <v>155900</v>
+      <c r="B74" s="4">
+        <v>101159</v>
+      </c>
+      <c r="C74" s="4">
+        <v>224493</v>
+      </c>
+      <c r="D74" s="4">
+        <v>461449</v>
       </c>
       <c r="E74">
-        <v>245000</v>
+        <v>354217</v>
       </c>
       <c r="F74">
-        <v>225600</v>
+        <v>436767</v>
       </c>
       <c r="G74">
-        <v>187500</v>
-      </c>
-      <c r="H74">
-        <v>800</v>
+        <v>345361</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1010</v>
       </c>
       <c r="I74">
-        <v>1000</v>
+        <v>1182</v>
       </c>
       <c r="J74">
-        <v>700</v>
-      </c>
-      <c r="K74">
-        <v>800</v>
+        <v>997</v>
+      </c>
+      <c r="K74" s="4">
+        <v>780</v>
       </c>
       <c r="L74">
-        <v>600</v>
+        <v>854</v>
       </c>
       <c r="M74">
-        <v>600</v>
+        <v>965</v>
       </c>
       <c r="Q74" s="1"/>
     </row>
@@ -3561,41 +3570,41 @@
       <c r="A75">
         <v>146027</v>
       </c>
-      <c r="B75">
-        <v>393900</v>
-      </c>
-      <c r="C75">
-        <v>399600</v>
-      </c>
-      <c r="D75">
-        <v>370300</v>
+      <c r="B75" s="4">
+        <v>129265</v>
+      </c>
+      <c r="C75" s="4">
+        <v>227206</v>
+      </c>
+      <c r="D75" s="4">
+        <v>536323</v>
       </c>
       <c r="E75">
-        <v>472200</v>
+        <v>352397</v>
       </c>
       <c r="F75">
-        <v>490200</v>
+        <v>440801</v>
       </c>
       <c r="G75">
-        <v>379500</v>
-      </c>
-      <c r="H75">
-        <v>800</v>
+        <v>362001</v>
+      </c>
+      <c r="H75" s="3">
+        <v>979</v>
       </c>
       <c r="I75">
-        <v>700</v>
+        <v>1141</v>
       </c>
       <c r="J75">
-        <v>2600</v>
-      </c>
-      <c r="K75">
-        <v>2100</v>
+        <v>790</v>
+      </c>
+      <c r="K75" s="4">
+        <v>760</v>
       </c>
       <c r="L75">
-        <v>400</v>
+        <v>874</v>
       </c>
       <c r="M75">
-        <v>1400</v>
+        <v>729</v>
       </c>
       <c r="Q75" s="1"/>
     </row>
@@ -3603,41 +3612,41 @@
       <c r="A76">
         <v>148026</v>
       </c>
-      <c r="B76">
-        <v>480200</v>
-      </c>
-      <c r="C76">
-        <v>462900</v>
-      </c>
-      <c r="D76">
-        <v>393700</v>
+      <c r="B76" s="4">
+        <v>122963</v>
+      </c>
+      <c r="C76" s="4">
+        <v>245482</v>
+      </c>
+      <c r="D76" s="4">
+        <v>416593</v>
       </c>
       <c r="E76">
-        <v>558600</v>
+        <v>355628</v>
       </c>
       <c r="F76">
-        <v>594000</v>
+        <v>465901</v>
       </c>
       <c r="G76">
-        <v>431600</v>
-      </c>
-      <c r="H76">
-        <v>700</v>
+        <v>355754</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1010</v>
       </c>
       <c r="I76">
-        <v>3400</v>
+        <v>933</v>
       </c>
       <c r="J76">
-        <v>500</v>
-      </c>
-      <c r="K76">
-        <v>1000</v>
+        <v>915</v>
+      </c>
+      <c r="K76" s="4">
+        <v>760</v>
       </c>
       <c r="L76">
-        <v>700</v>
+        <v>647</v>
       </c>
       <c r="M76">
-        <v>700</v>
+        <v>818</v>
       </c>
       <c r="Q76" s="1"/>
     </row>
@@ -3645,41 +3654,41 @@
       <c r="A77">
         <v>150025</v>
       </c>
-      <c r="B77">
-        <v>138700</v>
-      </c>
-      <c r="C77">
-        <v>140300</v>
-      </c>
-      <c r="D77">
-        <v>130200</v>
+      <c r="B77" s="4">
+        <v>141654</v>
+      </c>
+      <c r="C77" s="4">
+        <v>197594</v>
+      </c>
+      <c r="D77" s="4">
+        <v>485414</v>
       </c>
       <c r="E77">
-        <v>162100</v>
+        <v>360805</v>
       </c>
       <c r="F77">
-        <v>165400</v>
+        <v>450657</v>
       </c>
       <c r="G77">
-        <v>129200</v>
-      </c>
-      <c r="H77">
-        <v>2400</v>
+        <v>360645</v>
+      </c>
+      <c r="H77" s="3">
+        <v>993</v>
       </c>
       <c r="I77">
-        <v>1800</v>
+        <v>1021</v>
       </c>
       <c r="J77">
-        <v>500</v>
-      </c>
-      <c r="K77">
-        <v>2600</v>
+        <v>1097</v>
+      </c>
+      <c r="K77" s="4">
+        <v>770</v>
       </c>
       <c r="L77">
-        <v>600</v>
+        <v>849</v>
       </c>
       <c r="M77">
-        <v>2000</v>
+        <v>866</v>
       </c>
       <c r="Q77" s="1"/>
     </row>
@@ -3687,41 +3696,41 @@
       <c r="A78">
         <v>152024</v>
       </c>
-      <c r="B78">
-        <v>229600</v>
-      </c>
-      <c r="C78">
-        <v>225800</v>
-      </c>
-      <c r="D78">
-        <v>198800</v>
+      <c r="B78" s="4">
+        <v>120916</v>
+      </c>
+      <c r="C78" s="4">
+        <v>294655.99999999994</v>
+      </c>
+      <c r="D78" s="4">
+        <v>508397</v>
       </c>
       <c r="E78">
-        <v>265100</v>
+        <v>366207</v>
       </c>
       <c r="F78">
-        <v>293100</v>
+        <v>463740</v>
       </c>
       <c r="G78">
-        <v>222700</v>
-      </c>
-      <c r="H78">
-        <v>700</v>
+        <v>363516</v>
+      </c>
+      <c r="H78" s="3">
+        <v>968</v>
       </c>
       <c r="I78">
-        <v>1000</v>
+        <v>737</v>
       </c>
       <c r="J78">
-        <v>1000</v>
-      </c>
-      <c r="K78">
-        <v>2400</v>
+        <v>1199</v>
+      </c>
+      <c r="K78" s="4">
+        <v>770</v>
       </c>
       <c r="L78">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="M78">
-        <v>2500</v>
+        <v>643</v>
       </c>
       <c r="Q78" s="1"/>
     </row>
@@ -3729,41 +3738,41 @@
       <c r="A79">
         <v>154023</v>
       </c>
-      <c r="B79">
-        <v>16500</v>
-      </c>
-      <c r="C79">
-        <v>15800</v>
-      </c>
-      <c r="D79">
-        <v>12700</v>
+      <c r="B79" s="4">
+        <v>93333.299999999988</v>
+      </c>
+      <c r="C79" s="4">
+        <v>261860</v>
+      </c>
+      <c r="D79" s="4">
+        <v>500620</v>
       </c>
       <c r="E79">
-        <v>18400</v>
+        <v>365990</v>
       </c>
       <c r="F79">
-        <v>19900</v>
+        <v>469696</v>
       </c>
       <c r="G79">
-        <v>15400</v>
-      </c>
-      <c r="H79">
-        <v>700</v>
+        <v>377017</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1004.8</v>
       </c>
       <c r="I79">
-        <v>700</v>
+        <v>927</v>
       </c>
       <c r="J79">
-        <v>2400</v>
-      </c>
-      <c r="K79">
-        <v>1400</v>
+        <v>1104</v>
+      </c>
+      <c r="K79" s="4">
+        <v>770</v>
       </c>
       <c r="L79">
-        <v>700</v>
+        <v>956</v>
       </c>
       <c r="M79">
-        <v>2400</v>
+        <v>893</v>
       </c>
       <c r="Q79" s="1"/>
     </row>
@@ -3771,41 +3780,41 @@
       <c r="A80">
         <v>156022</v>
       </c>
-      <c r="B80">
-        <v>40100</v>
-      </c>
-      <c r="C80">
-        <v>39600</v>
-      </c>
-      <c r="D80">
-        <v>38200</v>
+      <c r="B80" s="4">
+        <v>121719</v>
+      </c>
+      <c r="C80" s="4">
+        <v>238594</v>
+      </c>
+      <c r="D80" s="4">
+        <v>455937</v>
       </c>
       <c r="E80">
-        <v>46400</v>
+        <v>371082</v>
       </c>
       <c r="F80">
-        <v>50800</v>
+        <v>468791</v>
       </c>
       <c r="G80">
-        <v>40200</v>
-      </c>
-      <c r="H80">
-        <v>2200</v>
+        <v>384328</v>
+      </c>
+      <c r="H80" s="3">
+        <v>997</v>
       </c>
       <c r="I80">
-        <v>1600</v>
+        <v>1216</v>
       </c>
       <c r="J80">
-        <v>1900</v>
-      </c>
-      <c r="K80">
-        <v>1400</v>
+        <v>754</v>
+      </c>
+      <c r="K80" s="4">
+        <v>760</v>
       </c>
       <c r="L80">
-        <v>1000</v>
+        <v>767</v>
       </c>
       <c r="M80">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q80" s="1"/>
     </row>
@@ -3813,41 +3822,41 @@
       <c r="A81">
         <v>158021</v>
       </c>
-      <c r="B81">
-        <v>127200</v>
-      </c>
-      <c r="C81">
-        <v>109600</v>
-      </c>
-      <c r="D81">
-        <v>91900</v>
+      <c r="B81" s="4">
+        <v>86666.700000000012</v>
+      </c>
+      <c r="C81" s="4">
+        <v>226984</v>
+      </c>
+      <c r="D81" s="4">
+        <v>467778</v>
       </c>
       <c r="E81">
-        <v>197600</v>
+        <v>376046</v>
       </c>
       <c r="F81">
-        <v>149600</v>
+        <v>502405</v>
       </c>
       <c r="G81">
-        <v>114400</v>
-      </c>
-      <c r="H81">
-        <v>700</v>
+        <v>379821</v>
+      </c>
+      <c r="H81" s="3">
+        <v>993</v>
       </c>
       <c r="I81">
-        <v>2400</v>
+        <v>1208</v>
       </c>
       <c r="J81">
-        <v>1000</v>
-      </c>
-      <c r="K81">
-        <v>1600</v>
+        <v>1036</v>
+      </c>
+      <c r="K81" s="4">
+        <v>770</v>
       </c>
       <c r="L81">
-        <v>400</v>
+        <v>945</v>
       </c>
       <c r="M81">
-        <v>600</v>
+        <v>915</v>
       </c>
       <c r="Q81" s="1"/>
     </row>
@@ -3855,41 +3864,41 @@
       <c r="A82">
         <v>160020</v>
       </c>
-      <c r="B82">
-        <v>177000</v>
-      </c>
-      <c r="C82">
-        <v>185600</v>
-      </c>
-      <c r="D82">
-        <v>198300</v>
+      <c r="B82" s="4">
+        <v>170645</v>
+      </c>
+      <c r="C82" s="4">
+        <v>290323</v>
+      </c>
+      <c r="D82" s="4">
+        <v>545806</v>
       </c>
       <c r="E82">
-        <v>223000</v>
+        <v>385547</v>
       </c>
       <c r="F82">
-        <v>261700</v>
+        <v>546441</v>
       </c>
       <c r="G82">
-        <v>178700</v>
-      </c>
-      <c r="H82">
-        <v>700</v>
+        <v>381498</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1020</v>
       </c>
       <c r="I82">
-        <v>500</v>
+        <v>1254</v>
       </c>
       <c r="J82">
-        <v>900</v>
-      </c>
-      <c r="K82">
-        <v>800</v>
+        <v>1195</v>
+      </c>
+      <c r="K82" s="4">
+        <v>760</v>
       </c>
       <c r="L82">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="M82">
-        <v>600</v>
+        <v>914</v>
       </c>
       <c r="Q82" s="1"/>
     </row>
@@ -3897,41 +3906,41 @@
       <c r="A83">
         <v>162019</v>
       </c>
-      <c r="B83">
-        <v>43600</v>
-      </c>
-      <c r="C83">
-        <v>93000</v>
-      </c>
-      <c r="D83">
-        <v>41900</v>
+      <c r="B83" s="4">
+        <v>91219.5</v>
+      </c>
+      <c r="C83" s="4">
+        <v>234146</v>
+      </c>
+      <c r="D83" s="4">
+        <v>480325</v>
       </c>
       <c r="E83">
-        <v>62300</v>
+        <v>398689</v>
       </c>
       <c r="F83">
-        <v>76400</v>
+        <v>559005</v>
       </c>
       <c r="G83">
-        <v>50300</v>
-      </c>
-      <c r="H83">
-        <v>500</v>
+        <v>394553</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1011.9999999999999</v>
       </c>
       <c r="I83">
-        <v>800</v>
+        <v>1249</v>
       </c>
       <c r="J83">
-        <v>400</v>
-      </c>
-      <c r="K83">
-        <v>1500</v>
+        <v>762</v>
+      </c>
+      <c r="K83" s="4">
+        <v>770</v>
       </c>
       <c r="L83">
-        <v>1400</v>
+        <v>777</v>
       </c>
       <c r="M83">
-        <v>600</v>
+        <v>764</v>
       </c>
       <c r="Q83" s="1"/>
     </row>
@@ -3939,41 +3948,41 @@
       <c r="A84">
         <v>164018</v>
       </c>
-      <c r="B84">
-        <v>250000</v>
-      </c>
-      <c r="C84">
-        <v>279700</v>
-      </c>
-      <c r="D84">
-        <v>266400</v>
+      <c r="B84" s="4">
+        <v>127603</v>
+      </c>
+      <c r="C84" s="4">
+        <v>246281</v>
+      </c>
+      <c r="D84" s="4">
+        <v>522313.99999999994</v>
       </c>
       <c r="E84">
-        <v>329100</v>
+        <v>390829</v>
       </c>
       <c r="F84">
-        <v>348500</v>
+        <v>545680</v>
       </c>
       <c r="G84">
-        <v>273700</v>
-      </c>
-      <c r="H84">
-        <v>1200</v>
+        <v>393131</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1000</v>
       </c>
       <c r="I84">
-        <v>700</v>
+        <v>824</v>
       </c>
       <c r="J84">
-        <v>700</v>
-      </c>
-      <c r="K84">
-        <v>500</v>
+        <v>764</v>
+      </c>
+      <c r="K84" s="4">
+        <v>760</v>
       </c>
       <c r="L84">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="M84">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="Q84" s="1"/>
     </row>
@@ -3981,41 +3990,41 @@
       <c r="A85">
         <v>166017</v>
       </c>
-      <c r="B85">
-        <v>151700</v>
-      </c>
-      <c r="C85">
-        <v>145300</v>
-      </c>
-      <c r="D85">
-        <v>120800</v>
+      <c r="B85" s="4">
+        <v>128333</v>
+      </c>
+      <c r="C85" s="4">
+        <v>238833</v>
+      </c>
+      <c r="D85" s="4">
+        <v>543000</v>
       </c>
       <c r="E85">
-        <v>162900</v>
+        <v>394967</v>
       </c>
       <c r="F85">
-        <v>189200</v>
+        <v>533364</v>
       </c>
       <c r="G85">
-        <v>147500</v>
-      </c>
-      <c r="H85">
-        <v>900</v>
+        <v>397136</v>
+      </c>
+      <c r="H85" s="3">
+        <v>963</v>
       </c>
       <c r="I85">
-        <v>500</v>
+        <v>929</v>
       </c>
       <c r="J85">
-        <v>1700</v>
-      </c>
-      <c r="K85">
-        <v>700</v>
+        <v>799</v>
+      </c>
+      <c r="K85" s="4">
+        <v>770</v>
       </c>
       <c r="L85">
-        <v>1300</v>
+        <v>708</v>
       </c>
       <c r="M85">
-        <v>600</v>
+        <v>838</v>
       </c>
       <c r="Q85" s="1"/>
     </row>
@@ -4023,82 +4032,82 @@
       <c r="A86">
         <v>168016</v>
       </c>
-      <c r="B86">
-        <v>289800</v>
-      </c>
-      <c r="C86">
-        <v>278400</v>
-      </c>
-      <c r="D86">
-        <v>278100</v>
+      <c r="B86" s="4">
+        <v>144370</v>
+      </c>
+      <c r="C86" s="4">
+        <v>326555</v>
+      </c>
+      <c r="D86" s="4">
+        <v>566555</v>
       </c>
       <c r="E86">
-        <v>355600</v>
+        <v>404416</v>
       </c>
       <c r="F86">
-        <v>367700</v>
+        <v>506728</v>
       </c>
       <c r="G86">
-        <v>276000</v>
-      </c>
-      <c r="H86">
-        <v>800</v>
+        <v>401729</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1006.4</v>
       </c>
       <c r="I86">
-        <v>600</v>
+        <v>1254</v>
       </c>
       <c r="J86">
-        <v>2800</v>
-      </c>
-      <c r="K86">
-        <v>500</v>
+        <v>972</v>
+      </c>
+      <c r="K86" s="4">
+        <v>760</v>
       </c>
       <c r="L86">
-        <v>2400</v>
+        <v>821</v>
       </c>
       <c r="M86">
-        <v>400</v>
+        <v>714</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>170015</v>
       </c>
-      <c r="B87">
-        <v>178200</v>
-      </c>
-      <c r="C87">
-        <v>187600</v>
-      </c>
-      <c r="D87">
-        <v>152100</v>
+      <c r="B87" s="4">
+        <v>143590</v>
+      </c>
+      <c r="C87" s="4">
+        <v>362222</v>
+      </c>
+      <c r="D87" s="4">
+        <v>617778.00000000012</v>
       </c>
       <c r="E87">
-        <v>183200</v>
+        <v>458918</v>
       </c>
       <c r="F87">
-        <v>231500</v>
+        <v>515646</v>
       </c>
       <c r="G87">
-        <v>186200</v>
-      </c>
-      <c r="H87">
-        <v>2300</v>
+        <v>407605</v>
+      </c>
+      <c r="H87" s="3">
+        <v>994</v>
       </c>
       <c r="I87">
-        <v>700</v>
+        <v>907</v>
       </c>
       <c r="J87">
-        <v>2100</v>
-      </c>
-      <c r="K87">
-        <v>600</v>
+        <v>820</v>
+      </c>
+      <c r="K87" s="4">
+        <v>770</v>
       </c>
       <c r="L87">
-        <v>1400</v>
+        <v>961</v>
       </c>
       <c r="M87">
-        <v>600</v>
+        <v>752</v>
       </c>
       <c r="Q87" s="1"/>
     </row>
@@ -4106,41 +4115,41 @@
       <c r="A88">
         <v>172014</v>
       </c>
-      <c r="B88">
-        <v>159200</v>
-      </c>
-      <c r="C88">
-        <v>163700</v>
-      </c>
-      <c r="D88">
-        <v>135200</v>
+      <c r="B88" s="4">
+        <v>166207</v>
+      </c>
+      <c r="C88" s="4">
+        <v>316034</v>
+      </c>
+      <c r="D88" s="4">
+        <v>545517</v>
       </c>
       <c r="E88">
-        <v>183100</v>
+        <v>411938</v>
       </c>
       <c r="F88">
-        <v>221500</v>
+        <v>521732</v>
       </c>
       <c r="G88">
-        <v>165000</v>
-      </c>
-      <c r="H88">
-        <v>2700</v>
+        <v>418883</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1006.6</v>
       </c>
       <c r="I88">
-        <v>600</v>
+        <v>791</v>
       </c>
       <c r="J88">
-        <v>600</v>
-      </c>
-      <c r="K88">
-        <v>700</v>
+        <v>1091</v>
+      </c>
+      <c r="K88" s="4">
+        <v>749.99999999999989</v>
       </c>
       <c r="L88">
-        <v>1500</v>
+        <v>726</v>
       </c>
       <c r="M88">
-        <v>600</v>
+        <v>797</v>
       </c>
       <c r="Q88" s="1"/>
     </row>
@@ -4148,41 +4157,41 @@
       <c r="A89">
         <v>174013</v>
       </c>
-      <c r="B89">
-        <v>113700</v>
-      </c>
-      <c r="C89">
-        <v>115600</v>
-      </c>
-      <c r="D89">
-        <v>112800</v>
+      <c r="B89" s="4">
+        <v>98771.900000000009</v>
+      </c>
+      <c r="C89" s="4">
+        <v>297895</v>
+      </c>
+      <c r="D89" s="4">
+        <v>573157.99999999988</v>
       </c>
       <c r="E89">
-        <v>133200</v>
+        <v>418870</v>
       </c>
       <c r="F89">
-        <v>511700</v>
+        <v>548484</v>
       </c>
       <c r="G89">
-        <v>118100</v>
-      </c>
-      <c r="H89">
-        <v>1400</v>
+        <v>414767</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1000</v>
       </c>
       <c r="I89">
-        <v>700</v>
+        <v>1226</v>
       </c>
       <c r="J89">
-        <v>1300</v>
-      </c>
-      <c r="K89">
-        <v>400</v>
+        <v>751</v>
+      </c>
+      <c r="K89" s="4">
+        <v>760</v>
       </c>
       <c r="L89">
-        <v>600</v>
+        <v>659</v>
       </c>
       <c r="M89">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="Q89" s="1"/>
     </row>
@@ -4190,41 +4199,41 @@
       <c r="A90">
         <v>176012</v>
       </c>
-      <c r="B90">
-        <v>157500</v>
-      </c>
-      <c r="C90">
-        <v>152200</v>
-      </c>
-      <c r="D90">
-        <v>126500</v>
+      <c r="B90" s="4">
+        <v>137698.99999999997</v>
+      </c>
+      <c r="C90" s="4">
+        <v>272920</v>
+      </c>
+      <c r="D90" s="4">
+        <v>552035.00000000012</v>
       </c>
       <c r="E90">
-        <v>148300</v>
+        <v>419360</v>
       </c>
       <c r="F90">
-        <v>205600</v>
+        <v>540683</v>
       </c>
       <c r="G90">
-        <v>537200</v>
-      </c>
-      <c r="H90">
-        <v>2000</v>
+        <v>430058</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1000</v>
       </c>
       <c r="I90">
-        <v>700</v>
+        <v>945</v>
       </c>
       <c r="J90">
-        <v>2500</v>
-      </c>
-      <c r="K90">
-        <v>800</v>
+        <v>850</v>
+      </c>
+      <c r="K90" s="4">
+        <v>770</v>
       </c>
       <c r="L90">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="M90">
-        <v>700</v>
+        <v>905</v>
       </c>
       <c r="Q90" s="1"/>
     </row>
@@ -4232,41 +4241,41 @@
       <c r="A91">
         <v>178011</v>
       </c>
-      <c r="B91">
-        <v>18600</v>
-      </c>
-      <c r="C91">
-        <v>18300</v>
-      </c>
-      <c r="D91">
-        <v>17600</v>
+      <c r="B91" s="4">
+        <v>132500</v>
+      </c>
+      <c r="C91" s="4">
+        <v>346607</v>
+      </c>
+      <c r="D91" s="4">
+        <v>580000</v>
       </c>
       <c r="E91">
-        <v>20200</v>
+        <v>428697</v>
       </c>
       <c r="F91">
-        <v>24600</v>
+        <v>534985</v>
       </c>
       <c r="G91">
-        <v>18600</v>
-      </c>
-      <c r="H91">
-        <v>2700</v>
+        <v>424545</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1010</v>
       </c>
       <c r="I91">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="J91">
-        <v>2500</v>
-      </c>
-      <c r="K91">
-        <v>800</v>
+        <v>1193</v>
+      </c>
+      <c r="K91" s="4">
+        <v>749.99999999999989</v>
       </c>
       <c r="L91">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="M91">
-        <v>700</v>
+        <v>774</v>
       </c>
       <c r="Q91" s="1"/>
     </row>
@@ -4274,41 +4283,41 @@
       <c r="A92">
         <v>180010</v>
       </c>
-      <c r="B92">
-        <v>327300</v>
-      </c>
-      <c r="C92">
-        <v>350900</v>
-      </c>
-      <c r="D92">
-        <v>295200</v>
+      <c r="B92" s="4">
+        <v>158378</v>
+      </c>
+      <c r="C92" s="4">
+        <v>313514</v>
+      </c>
+      <c r="D92" s="4">
+        <v>551351</v>
       </c>
       <c r="E92">
-        <v>350500</v>
+        <v>432232</v>
       </c>
       <c r="F92">
-        <v>484400</v>
+        <v>547180</v>
       </c>
       <c r="G92">
-        <v>353000</v>
-      </c>
-      <c r="H92">
-        <v>2800</v>
+        <v>443413</v>
+      </c>
+      <c r="H92" s="3">
+        <v>995.00000000000011</v>
       </c>
       <c r="I92">
-        <v>700</v>
+        <v>1056</v>
       </c>
       <c r="J92">
-        <v>700</v>
-      </c>
-      <c r="K92">
-        <v>800</v>
+        <v>1024</v>
+      </c>
+      <c r="K92" s="4">
+        <v>770</v>
       </c>
       <c r="L92">
-        <v>600</v>
+        <v>736</v>
       </c>
       <c r="M92">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="Q92" s="1"/>
     </row>
@@ -4316,41 +4325,41 @@
       <c r="A93">
         <v>182009</v>
       </c>
-      <c r="B93">
-        <v>376400</v>
-      </c>
-      <c r="C93">
-        <v>387700</v>
-      </c>
-      <c r="D93">
-        <v>381700</v>
+      <c r="B93" s="4">
+        <v>134311.99999999997</v>
+      </c>
+      <c r="C93" s="4">
+        <v>242202</v>
+      </c>
+      <c r="D93" s="4">
+        <v>684587</v>
       </c>
       <c r="E93">
-        <v>483300</v>
+        <v>440587</v>
       </c>
       <c r="F93">
-        <v>705300</v>
+        <v>558170</v>
       </c>
       <c r="G93">
-        <v>436100</v>
-      </c>
-      <c r="H93">
-        <v>900</v>
+        <v>442708</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1010</v>
       </c>
       <c r="I93">
-        <v>600</v>
+        <v>876</v>
       </c>
       <c r="J93">
-        <v>600</v>
-      </c>
-      <c r="K93">
-        <v>700</v>
+        <v>1040</v>
+      </c>
+      <c r="K93" s="4">
+        <v>760</v>
       </c>
       <c r="L93">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="M93">
-        <v>1200</v>
+        <v>601</v>
       </c>
       <c r="Q93" s="1"/>
     </row>
@@ -4358,41 +4367,41 @@
       <c r="A94">
         <v>184008</v>
       </c>
-      <c r="B94">
-        <v>40300</v>
-      </c>
-      <c r="C94">
-        <v>42500</v>
-      </c>
-      <c r="D94">
-        <v>36000</v>
+      <c r="B94" s="4">
+        <v>175556</v>
+      </c>
+      <c r="C94" s="4">
+        <v>209074</v>
+      </c>
+      <c r="D94" s="4">
+        <v>663889</v>
       </c>
       <c r="E94">
-        <v>47600</v>
+        <v>433364</v>
       </c>
       <c r="F94">
-        <v>69800</v>
+        <v>575019</v>
       </c>
       <c r="G94">
-        <v>42800</v>
-      </c>
-      <c r="H94">
-        <v>1700</v>
+        <v>453119</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1010.2</v>
       </c>
       <c r="I94">
-        <v>700</v>
+        <v>1036</v>
       </c>
       <c r="J94">
-        <v>500</v>
-      </c>
-      <c r="K94">
-        <v>1600</v>
+        <v>1039</v>
+      </c>
+      <c r="K94" s="4">
+        <v>760</v>
       </c>
       <c r="L94">
-        <v>700</v>
+        <v>588</v>
       </c>
       <c r="M94">
-        <v>700</v>
+        <v>908</v>
       </c>
       <c r="Q94" s="1"/>
     </row>
@@ -4400,41 +4409,41 @@
       <c r="A95">
         <v>186007</v>
       </c>
-      <c r="B95">
-        <v>222500</v>
-      </c>
-      <c r="C95">
-        <v>190300</v>
-      </c>
-      <c r="D95">
-        <v>208000</v>
+      <c r="B95" s="4">
+        <v>135327</v>
+      </c>
+      <c r="C95" s="4">
+        <v>350280</v>
+      </c>
+      <c r="D95" s="4">
+        <v>594019</v>
       </c>
       <c r="E95">
-        <v>217100</v>
+        <v>448066</v>
       </c>
       <c r="F95">
-        <v>398800</v>
+        <v>634920</v>
       </c>
       <c r="G95">
-        <v>221200</v>
-      </c>
-      <c r="H95">
-        <v>2100</v>
+        <v>446837</v>
+      </c>
+      <c r="H95" s="3">
+        <v>992</v>
       </c>
       <c r="I95">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="J95">
-        <v>1100</v>
-      </c>
-      <c r="K95">
-        <v>700</v>
+        <v>1164</v>
+      </c>
+      <c r="K95" s="4">
+        <v>770</v>
       </c>
       <c r="L95">
-        <v>2100</v>
+        <v>744</v>
       </c>
       <c r="M95">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="Q95" s="1"/>
     </row>
@@ -4442,41 +4451,41 @@
       <c r="A96">
         <v>188006</v>
       </c>
-      <c r="B96">
-        <v>34400</v>
-      </c>
-      <c r="C96">
-        <v>35300</v>
-      </c>
-      <c r="D96">
-        <v>29000</v>
+      <c r="B96" s="4">
+        <v>137736</v>
+      </c>
+      <c r="C96" s="4">
+        <v>317924</v>
+      </c>
+      <c r="D96" s="4">
+        <v>629811</v>
       </c>
       <c r="E96">
-        <v>39000</v>
+        <v>467050</v>
       </c>
       <c r="F96">
-        <v>56400</v>
+        <v>570713</v>
       </c>
       <c r="G96">
-        <v>34100</v>
-      </c>
-      <c r="H96">
-        <v>1500</v>
+        <v>447371</v>
+      </c>
+      <c r="H96" s="3">
+        <v>998</v>
       </c>
       <c r="I96">
-        <v>400</v>
+        <v>1164</v>
       </c>
       <c r="J96">
-        <v>700</v>
-      </c>
-      <c r="K96">
-        <v>600</v>
+        <v>769</v>
+      </c>
+      <c r="K96" s="4">
+        <v>770</v>
       </c>
       <c r="L96">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M96">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="Q96" s="1"/>
     </row>
@@ -4484,41 +4493,41 @@
       <c r="A97">
         <v>190005</v>
       </c>
-      <c r="B97">
-        <v>202100</v>
-      </c>
-      <c r="C97">
-        <v>208500</v>
-      </c>
-      <c r="D97">
-        <v>186100</v>
+      <c r="B97" s="4">
+        <v>191810</v>
+      </c>
+      <c r="C97" s="4">
+        <v>385714</v>
+      </c>
+      <c r="D97" s="4">
+        <v>714667.00000000012</v>
       </c>
       <c r="E97">
-        <v>218000</v>
+        <v>454156</v>
       </c>
       <c r="F97">
-        <v>351800</v>
+        <v>576279</v>
       </c>
       <c r="G97">
-        <v>203500</v>
-      </c>
-      <c r="H97">
-        <v>1700</v>
+        <v>452817</v>
+      </c>
+      <c r="H97" s="3">
+        <v>1022.6</v>
       </c>
       <c r="I97">
-        <v>2700</v>
+        <v>976</v>
       </c>
       <c r="J97">
-        <v>1500</v>
-      </c>
-      <c r="K97">
-        <v>1900</v>
+        <v>1027</v>
+      </c>
+      <c r="K97" s="4">
+        <v>760</v>
       </c>
       <c r="L97">
-        <v>700</v>
+        <v>901</v>
       </c>
       <c r="M97">
-        <v>2000</v>
+        <v>791</v>
       </c>
       <c r="Q97" s="1"/>
     </row>
@@ -4526,41 +4535,41 @@
       <c r="A98">
         <v>192004</v>
       </c>
-      <c r="B98">
-        <v>102700</v>
-      </c>
-      <c r="C98">
-        <v>110100</v>
-      </c>
-      <c r="D98">
-        <v>626500</v>
+      <c r="B98" s="4">
+        <v>157115</v>
+      </c>
+      <c r="C98" s="4">
+        <v>343269</v>
+      </c>
+      <c r="D98" s="4">
+        <v>649423</v>
       </c>
       <c r="E98">
-        <v>87100</v>
+        <v>459018</v>
       </c>
       <c r="F98">
-        <v>128000</v>
+        <v>616115</v>
       </c>
       <c r="G98">
-        <v>97200</v>
-      </c>
-      <c r="H98">
-        <v>700</v>
+        <v>459473</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1010</v>
       </c>
       <c r="I98">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="J98">
-        <v>700</v>
-      </c>
-      <c r="K98">
-        <v>700</v>
+        <v>1192</v>
+      </c>
+      <c r="K98" s="4">
+        <v>749.99999999999989</v>
       </c>
       <c r="L98">
-        <v>600</v>
+        <v>742</v>
       </c>
       <c r="M98">
-        <v>700</v>
+        <v>579</v>
       </c>
       <c r="Q98" s="1"/>
     </row>
@@ -4568,41 +4577,41 @@
       <c r="A99">
         <v>194003</v>
       </c>
-      <c r="B99">
-        <v>192800</v>
-      </c>
-      <c r="C99">
-        <v>182100</v>
-      </c>
-      <c r="D99">
-        <v>181500</v>
+      <c r="B99" s="4">
+        <v>152621</v>
+      </c>
+      <c r="C99" s="4">
+        <v>394757.00000000006</v>
+      </c>
+      <c r="D99" s="4">
+        <v>646990</v>
       </c>
       <c r="E99">
-        <v>178900</v>
+        <v>481464</v>
       </c>
       <c r="F99">
-        <v>247800</v>
+        <v>582003</v>
       </c>
       <c r="G99">
-        <v>184900</v>
-      </c>
-      <c r="H99">
-        <v>1000</v>
+        <v>476623</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1026.4000000000001</v>
       </c>
       <c r="I99">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="J99">
-        <v>1200</v>
-      </c>
-      <c r="K99">
-        <v>600</v>
+        <v>949</v>
+      </c>
+      <c r="K99" s="4">
+        <v>770</v>
       </c>
       <c r="L99">
-        <v>700</v>
+        <v>942</v>
       </c>
       <c r="M99">
-        <v>500</v>
+        <v>626</v>
       </c>
       <c r="Q99" s="1"/>
     </row>
@@ -4610,41 +4619,41 @@
       <c r="A100">
         <v>196002</v>
       </c>
-      <c r="B100">
-        <v>507900</v>
-      </c>
-      <c r="C100">
-        <v>451400</v>
-      </c>
-      <c r="D100">
-        <v>568400</v>
+      <c r="B100" s="4">
+        <v>189216</v>
+      </c>
+      <c r="C100" s="4">
+        <v>347059</v>
+      </c>
+      <c r="D100" s="4">
+        <v>602940.99999999988</v>
       </c>
       <c r="E100">
-        <v>462800</v>
+        <v>467180</v>
       </c>
       <c r="F100">
-        <v>701600</v>
+        <v>599689</v>
       </c>
       <c r="G100">
-        <v>523100</v>
-      </c>
-      <c r="H100">
-        <v>700</v>
+        <v>470026</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1015.8</v>
       </c>
       <c r="I100">
-        <v>800</v>
+        <v>1146</v>
       </c>
       <c r="J100">
-        <v>700</v>
-      </c>
-      <c r="K100">
-        <v>900</v>
+        <v>857</v>
+      </c>
+      <c r="K100" s="4">
+        <v>760</v>
       </c>
       <c r="L100">
-        <v>700</v>
+        <v>575</v>
       </c>
       <c r="M100">
-        <v>1300</v>
+        <v>798</v>
       </c>
       <c r="Q100" s="1"/>
     </row>
@@ -4652,43 +4661,53 @@
       <c r="A101">
         <v>198001</v>
       </c>
-      <c r="B101">
-        <v>607900</v>
-      </c>
-      <c r="C101">
-        <v>644100</v>
-      </c>
-      <c r="D101">
-        <v>787800</v>
+      <c r="B101" s="4">
+        <v>130297</v>
+      </c>
+      <c r="C101" s="4">
+        <v>386733</v>
+      </c>
+      <c r="D101" s="4">
+        <v>606733</v>
       </c>
       <c r="E101">
-        <v>570200</v>
+        <v>473390</v>
       </c>
       <c r="F101">
-        <v>824300</v>
+        <v>598092</v>
       </c>
       <c r="G101">
-        <v>619500</v>
-      </c>
-      <c r="H101">
-        <v>700</v>
+        <v>475721</v>
+      </c>
+      <c r="H101" s="3">
+        <v>986</v>
       </c>
       <c r="I101">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="J101">
-        <v>700</v>
-      </c>
-      <c r="K101">
-        <v>400</v>
+        <v>926</v>
+      </c>
+      <c r="K101" s="4">
+        <v>770</v>
       </c>
       <c r="L101">
-        <v>500</v>
+        <v>664</v>
       </c>
       <c r="M101">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="Q101" s="1"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
